--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468411.9083704719</v>
+        <v>466716.5358272704</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404295.4690625138</v>
+        <v>514898.9531994372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>36.41941716284243</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.71533352957419</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>25.26352626214136</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>220.8837963815378</v>
-      </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.1101224634644</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.438799626810386</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.62774917680808</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="F8" t="n">
-        <v>212.5562620479443</v>
       </c>
       <c r="G8" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>216.6533621007966</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="X8" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>54.31082973216574</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>9.888805141052407</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>69.40990664858337</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>363.4924615210412</v>
       </c>
       <c r="C11" t="n">
-        <v>73.76145914583965</v>
+        <v>330.1384092644379</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>335.4416614782436</v>
       </c>
       <c r="E11" t="n">
-        <v>362.6889899298225</v>
+        <v>362.6889899298224</v>
       </c>
       <c r="F11" t="n">
         <v>387.6346655992721</v>
@@ -1385,10 +1385,10 @@
         <v>393.7254171584473</v>
       </c>
       <c r="H11" t="n">
-        <v>296.3104742541565</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>101.1781743181554</v>
+        <v>101.1781743181553</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>136.5484518116207</v>
       </c>
       <c r="T11" t="n">
-        <v>193.6288911338197</v>
+        <v>193.6288911338196</v>
       </c>
       <c r="U11" t="n">
-        <v>231.9173975482573</v>
+        <v>231.9173975482572</v>
       </c>
       <c r="V11" t="n">
-        <v>308.5108783276956</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>329.9995885749737</v>
+        <v>329.9995885749736</v>
       </c>
       <c r="X11" t="n">
-        <v>350.4897205360297</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.9965585136143</v>
+        <v>366.9965585136142</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.1646384581566</v>
       </c>
       <c r="I12" t="n">
-        <v>46.3649228786777</v>
+        <v>46.36492287867769</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.55823079288893</v>
+        <v>22.55823079288891</v>
       </c>
       <c r="S12" t="n">
         <v>148.467974704533</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>148.0054409561885</v>
       </c>
       <c r="D13" t="n">
         <v>129.374092875773</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.7017768535215</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>15.1370839228804</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03675894563218662</v>
+        <v>0.03675894563212978</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>204.2271501006239</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>267.0204952670063</v>
+        <v>267.0204952670062</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>267.2816181941517</v>
+        <v>267.2816181941516</v>
       </c>
       <c r="X13" t="n">
-        <v>106.6171516319657</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.0140461943218</v>
+        <v>359.0140461943217</v>
       </c>
       <c r="C14" t="n">
-        <v>341.5530963018489</v>
+        <v>341.5530963018487</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>330.9632461515241</v>
       </c>
       <c r="E14" t="n">
-        <v>358.2105746031031</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>383.1562502725527</v>
+        <v>383.1562502725526</v>
       </c>
       <c r="G14" t="n">
-        <v>389.2470018317279</v>
+        <v>389.2470018317278</v>
       </c>
       <c r="H14" t="n">
-        <v>291.8320589274371</v>
+        <v>291.8320589274369</v>
       </c>
       <c r="I14" t="n">
-        <v>96.69975899143598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.47678227771775</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>189.1504758071003</v>
+        <v>189.1504758071002</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>227.4389822215378</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>304.0324630009761</v>
       </c>
       <c r="W14" t="n">
-        <v>325.5211732482543</v>
+        <v>8.473597746474638</v>
       </c>
       <c r="X14" t="n">
-        <v>346.0113052093103</v>
+        <v>346.0113052093102</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.5181431868949</v>
+        <v>362.5181431868947</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.1646384581566</v>
       </c>
       <c r="I15" t="n">
-        <v>46.3649228786777</v>
+        <v>46.36492287867769</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.55823079288893</v>
+        <v>22.55823079288891</v>
       </c>
       <c r="S15" t="n">
         <v>148.467974704533</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.1121847127786</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.527025629469</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>124.8956775490535</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.7141671774103</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.35616788688136</v>
       </c>
       <c r="G16" t="n">
-        <v>143.2233615268022</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.459692226969</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>199.7487347739045</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.06315700785412</v>
+        <v>262.5420799402867</v>
       </c>
       <c r="V16" t="n">
-        <v>228.4178478546693</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>262.8032028674323</v>
+        <v>262.8032028674322</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>201.9898599198783</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>95.84365500736378</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>83.25849592405432</v>
       </c>
       <c r="D19" t="n">
         <v>64.62714784363884</v>
       </c>
       <c r="E19" t="n">
-        <v>62.44563747199565</v>
+        <v>1.867795872296753</v>
       </c>
       <c r="F19" t="n">
         <v>61.43272284835773</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.68065432435602</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>121.7675867814127</v>
@@ -2099,7 +2099,7 @@
         <v>231.5635292220223</v>
       </c>
       <c r="I20" t="n">
-        <v>36.43122928602116</v>
+        <v>36.43122928602115</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.80150677948653</v>
+        <v>71.80150677948652</v>
       </c>
       <c r="T20" t="n">
         <v>128.8819461016855</v>
@@ -2141,7 +2141,7 @@
         <v>243.7639332955614</v>
       </c>
       <c r="W20" t="n">
-        <v>265.2526435428395</v>
+        <v>265.2526435428398</v>
       </c>
       <c r="X20" t="n">
         <v>285.7427755038955</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.55823079288893</v>
+        <v>22.55823079288892</v>
       </c>
       <c r="S21" t="n">
         <v>148.467974704533</v>
@@ -2251,13 +2251,13 @@
         <v>61.43272284835773</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>82.95483182138734</v>
       </c>
       <c r="H22" t="n">
-        <v>45.10858166460982</v>
+        <v>68.92275396447566</v>
       </c>
       <c r="I22" t="n">
-        <v>39.95127361502075</v>
+        <v>39.95127361502074</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>139.4802050684897</v>
       </c>
       <c r="U22" t="n">
-        <v>202.2735502348721</v>
+        <v>202.273550234872</v>
       </c>
       <c r="V22" t="n">
-        <v>168.1493181492545</v>
+        <v>61.38031402800168</v>
       </c>
       <c r="W22" t="n">
         <v>202.5346731620175</v>
@@ -2318,7 +2318,7 @@
         <v>298.7455164889071</v>
       </c>
       <c r="C23" t="n">
-        <v>281.284566596434</v>
+        <v>281.2845665964341</v>
       </c>
       <c r="D23" t="n">
         <v>270.6947164461095</v>
@@ -2327,16 +2327,16 @@
         <v>297.9420448976883</v>
       </c>
       <c r="F23" t="n">
-        <v>322.8877205671379</v>
+        <v>322.887720567138</v>
       </c>
       <c r="G23" t="n">
-        <v>328.9784721263131</v>
+        <v>328.9784721263132</v>
       </c>
       <c r="H23" t="n">
         <v>231.5635292220223</v>
       </c>
       <c r="I23" t="n">
-        <v>36.43122928602116</v>
+        <v>36.43122928602124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.80150677948653</v>
+        <v>71.8015067794866</v>
       </c>
       <c r="T23" t="n">
-        <v>128.8819461016855</v>
+        <v>128.8819461016856</v>
       </c>
       <c r="U23" t="n">
-        <v>167.1704525161231</v>
+        <v>167.1704525161232</v>
       </c>
       <c r="V23" t="n">
-        <v>243.7639332955614</v>
+        <v>243.7639332955615</v>
       </c>
       <c r="W23" t="n">
-        <v>265.2526435428395</v>
+        <v>265.2526435428396</v>
       </c>
       <c r="X23" t="n">
-        <v>285.7427755038955</v>
+        <v>285.7427755038956</v>
       </c>
       <c r="Y23" t="n">
         <v>302.2496134814801</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.84365500736378</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>83.25849592405432</v>
+        <v>83.25849592405439</v>
       </c>
       <c r="D25" t="n">
-        <v>64.62714784363884</v>
+        <v>64.62714784363891</v>
       </c>
       <c r="E25" t="n">
-        <v>62.44563747199565</v>
+        <v>62.44563747199572</v>
       </c>
       <c r="F25" t="n">
-        <v>61.43272284835773</v>
+        <v>61.4327228483578</v>
       </c>
       <c r="G25" t="n">
-        <v>82.95483182138734</v>
+        <v>82.95483182138742</v>
       </c>
       <c r="H25" t="n">
-        <v>68.92275396447566</v>
+        <v>68.92275396447573</v>
       </c>
       <c r="I25" t="n">
-        <v>39.95127361502075</v>
+        <v>39.95127361502082</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.1911625215542</v>
+        <v>46.19116252155428</v>
       </c>
       <c r="S25" t="n">
         <v>121.7675867814127</v>
       </c>
       <c r="T25" t="n">
-        <v>139.4802050684897</v>
+        <v>128.5548559545989</v>
       </c>
       <c r="U25" t="n">
         <v>202.2735502348721</v>
       </c>
       <c r="V25" t="n">
-        <v>61.38031402800105</v>
+        <v>168.1493181492546</v>
       </c>
       <c r="W25" t="n">
-        <v>202.5346731620175</v>
+        <v>202.5346731620176</v>
       </c>
       <c r="X25" t="n">
-        <v>141.7213302144636</v>
+        <v>141.7213302144637</v>
       </c>
       <c r="Y25" t="n">
         <v>134.5963281775213</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.7455164889071</v>
+        <v>298.745516488907</v>
       </c>
       <c r="C26" t="n">
         <v>281.284566596434</v>
       </c>
       <c r="D26" t="n">
-        <v>270.6947164461095</v>
+        <v>270.6947164461094</v>
       </c>
       <c r="E26" t="n">
-        <v>297.9420448976883</v>
+        <v>297.9420448976882</v>
       </c>
       <c r="F26" t="n">
         <v>322.8877205671379</v>
@@ -2573,7 +2573,7 @@
         <v>231.5635292220223</v>
       </c>
       <c r="I26" t="n">
-        <v>36.43122928602116</v>
+        <v>36.43122928602115</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.80150677948653</v>
+        <v>71.80150677948652</v>
       </c>
       <c r="T26" t="n">
         <v>128.8819461016855</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.84365500736378</v>
+        <v>95.84365500736376</v>
       </c>
       <c r="C28" t="n">
-        <v>83.25849592405432</v>
+        <v>83.2584959240543</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>64.62714784363882</v>
       </c>
       <c r="E28" t="n">
-        <v>62.44563747199565</v>
+        <v>62.44563747199564</v>
       </c>
       <c r="F28" t="n">
-        <v>61.43272284835773</v>
+        <v>61.43272284835771</v>
       </c>
       <c r="G28" t="n">
-        <v>82.95483182138734</v>
+        <v>82.95483182138733</v>
       </c>
       <c r="H28" t="n">
-        <v>68.92275396447566</v>
+        <v>68.92275396447565</v>
       </c>
       <c r="I28" t="n">
-        <v>39.95127361502075</v>
+        <v>39.95127361502074</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.1911625215542</v>
+        <v>46.19116252155419</v>
       </c>
       <c r="S28" t="n">
         <v>121.7675867814127</v>
@@ -2767,10 +2767,10 @@
         <v>139.4802050684897</v>
       </c>
       <c r="U28" t="n">
-        <v>202.2735502348721</v>
+        <v>202.273550234872</v>
       </c>
       <c r="V28" t="n">
-        <v>126.0074618716402</v>
+        <v>168.1493181492545</v>
       </c>
       <c r="W28" t="n">
         <v>202.5346731620175</v>
@@ -2779,7 +2779,7 @@
         <v>141.7213302144636</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.5963281775213</v>
+        <v>27.82732405626824</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>298.7455164889071</v>
       </c>
       <c r="C29" t="n">
-        <v>281.2845665964341</v>
+        <v>281.284566596434</v>
       </c>
       <c r="D29" t="n">
         <v>270.6947164461095</v>
@@ -2801,16 +2801,16 @@
         <v>297.9420448976883</v>
       </c>
       <c r="F29" t="n">
-        <v>322.887720567138</v>
+        <v>322.8877205671379</v>
       </c>
       <c r="G29" t="n">
-        <v>328.9784721263132</v>
+        <v>328.9784721263131</v>
       </c>
       <c r="H29" t="n">
         <v>231.5635292220223</v>
       </c>
       <c r="I29" t="n">
-        <v>36.43122928602122</v>
+        <v>36.43122928602118</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.80150677948659</v>
+        <v>71.80150677948654</v>
       </c>
       <c r="T29" t="n">
-        <v>128.8819461016856</v>
+        <v>128.8819461016855</v>
       </c>
       <c r="U29" t="n">
         <v>167.1704525161231</v>
       </c>
       <c r="V29" t="n">
-        <v>243.7639332955615</v>
+        <v>243.7639332955614</v>
       </c>
       <c r="W29" t="n">
-        <v>265.2526435428396</v>
+        <v>265.2526435428395</v>
       </c>
       <c r="X29" t="n">
-        <v>285.7427755038956</v>
+        <v>285.7427755038955</v>
       </c>
       <c r="Y29" t="n">
         <v>302.2496134814801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.84365500736384</v>
+        <v>95.84365500736379</v>
       </c>
       <c r="C31" t="n">
-        <v>83.25849592405437</v>
+        <v>83.25849592405433</v>
       </c>
       <c r="D31" t="n">
-        <v>64.62714784363889</v>
+        <v>64.62714784363885</v>
       </c>
       <c r="E31" t="n">
-        <v>62.44563747199571</v>
+        <v>62.44563747199567</v>
       </c>
       <c r="F31" t="n">
-        <v>61.43272284835778</v>
+        <v>61.43272284835774</v>
       </c>
       <c r="G31" t="n">
-        <v>82.9548318213874</v>
+        <v>82.95483182138736</v>
       </c>
       <c r="H31" t="n">
-        <v>68.92275396447572</v>
+        <v>68.92275396447567</v>
       </c>
       <c r="I31" t="n">
-        <v>39.95127361502081</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.19116252155426</v>
+        <v>46.19116252155422</v>
       </c>
       <c r="S31" t="n">
         <v>121.7675867814127</v>
@@ -3007,16 +3007,16 @@
         <v>202.2735502348721</v>
       </c>
       <c r="V31" t="n">
-        <v>168.1493181492546</v>
+        <v>101.3315876430217</v>
       </c>
       <c r="W31" t="n">
-        <v>202.5346731620176</v>
+        <v>202.5346731620175</v>
       </c>
       <c r="X31" t="n">
-        <v>141.7213302144637</v>
+        <v>141.7213302144636</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.827324056267</v>
+        <v>134.5963281775213</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>294.2671011621876</v>
       </c>
       <c r="C32" t="n">
-        <v>276.8061512697146</v>
+        <v>276.8061512697145</v>
       </c>
       <c r="D32" t="n">
         <v>266.21630111939</v>
@@ -3044,10 +3044,10 @@
         <v>324.5000567995937</v>
       </c>
       <c r="H32" t="n">
-        <v>227.0851138953028</v>
+        <v>294.2613437960948</v>
       </c>
       <c r="I32" t="n">
-        <v>31.95281395930171</v>
+        <v>31.95281395930168</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.32309145276707</v>
+        <v>67.32309145276704</v>
       </c>
       <c r="T32" t="n">
         <v>124.403530774966</v>
@@ -3095,7 +3095,7 @@
         <v>281.2643601771761</v>
       </c>
       <c r="Y32" t="n">
-        <v>364.9474280555532</v>
+        <v>297.7711981547606</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.36523968064432</v>
+        <v>91.36523968064429</v>
       </c>
       <c r="C34" t="n">
-        <v>78.78008059733486</v>
+        <v>78.78008059733483</v>
       </c>
       <c r="D34" t="n">
-        <v>60.14873251691938</v>
+        <v>60.14873251691935</v>
       </c>
       <c r="E34" t="n">
-        <v>57.9672221452762</v>
+        <v>57.96722214527617</v>
       </c>
       <c r="F34" t="n">
-        <v>56.95430752163827</v>
+        <v>56.95430752163824</v>
       </c>
       <c r="G34" t="n">
-        <v>78.47641649466789</v>
+        <v>78.47641649466786</v>
       </c>
       <c r="H34" t="n">
-        <v>64.4443386377562</v>
+        <v>64.44433863775618</v>
       </c>
       <c r="I34" t="n">
-        <v>35.4728582883013</v>
+        <v>35.47285828830127</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71274719483475</v>
+        <v>41.71274719483472</v>
       </c>
       <c r="S34" t="n">
         <v>117.2891714546932</v>
@@ -3250,7 +3250,7 @@
         <v>198.056257835298</v>
       </c>
       <c r="X34" t="n">
-        <v>137.2429148877442</v>
+        <v>137.2429148877441</v>
       </c>
       <c r="Y34" t="n">
         <v>130.1179128508018</v>
@@ -3284,7 +3284,7 @@
         <v>227.0851138953028</v>
       </c>
       <c r="I35" t="n">
-        <v>31.95281395930171</v>
+        <v>99.12904386009323</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.134113457868978</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.32309145276707</v>
+        <v>67.32309145276706</v>
       </c>
       <c r="T35" t="n">
         <v>124.403530774966</v>
@@ -3323,7 +3323,7 @@
         <v>162.6920371894036</v>
       </c>
       <c r="V35" t="n">
-        <v>303.3276344117642</v>
+        <v>239.2855179688419</v>
       </c>
       <c r="W35" t="n">
         <v>260.77422821612</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.36523968064432</v>
+        <v>91.36523968064431</v>
       </c>
       <c r="C37" t="n">
-        <v>78.78008059733486</v>
+        <v>78.78008059733484</v>
       </c>
       <c r="D37" t="n">
-        <v>60.14873251691938</v>
+        <v>60.14873251691937</v>
       </c>
       <c r="E37" t="n">
-        <v>57.9672221452762</v>
+        <v>57.96722214527618</v>
       </c>
       <c r="F37" t="n">
-        <v>56.95430752163827</v>
+        <v>56.95430752163826</v>
       </c>
       <c r="G37" t="n">
-        <v>78.47641649466789</v>
+        <v>78.47641649466787</v>
       </c>
       <c r="H37" t="n">
-        <v>64.4443386377562</v>
+        <v>64.44433863775619</v>
       </c>
       <c r="I37" t="n">
-        <v>35.4728582883013</v>
+        <v>35.47285828830128</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71274719483475</v>
+        <v>41.71274719483473</v>
       </c>
       <c r="S37" t="n">
         <v>117.2891714546932</v>
@@ -3521,7 +3521,7 @@
         <v>227.0851138953028</v>
       </c>
       <c r="I38" t="n">
-        <v>31.95281395930172</v>
+        <v>31.95281395930171</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.134113457868978</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.32309145276709</v>
+        <v>67.32309145276707</v>
       </c>
       <c r="T38" t="n">
         <v>124.403530774966</v>
       </c>
       <c r="U38" t="n">
-        <v>226.7341536323261</v>
+        <v>162.6920371894036</v>
       </c>
       <c r="V38" t="n">
         <v>239.2855179688419</v>
       </c>
       <c r="W38" t="n">
-        <v>260.77422821612</v>
+        <v>327.9504581169124</v>
       </c>
       <c r="X38" t="n">
         <v>281.2643601771761</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.36523968064434</v>
+        <v>91.36523968064432</v>
       </c>
       <c r="C40" t="n">
-        <v>78.78008059733487</v>
+        <v>78.78008059733486</v>
       </c>
       <c r="D40" t="n">
-        <v>60.1487325169194</v>
+        <v>60.14873251691938</v>
       </c>
       <c r="E40" t="n">
-        <v>57.96722214527621</v>
+        <v>57.9672221452762</v>
       </c>
       <c r="F40" t="n">
-        <v>56.95430752163828</v>
+        <v>56.95430752163827</v>
       </c>
       <c r="G40" t="n">
-        <v>78.4764164946679</v>
+        <v>78.47641649466789</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44433863775622</v>
+        <v>64.4443386377562</v>
       </c>
       <c r="I40" t="n">
-        <v>35.47285828830131</v>
+        <v>35.4728582883013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71274719483476</v>
+        <v>41.71274719483475</v>
       </c>
       <c r="S40" t="n">
         <v>117.2891714546932</v>
       </c>
       <c r="T40" t="n">
-        <v>135.0017897417703</v>
+        <v>135.0017897417702</v>
       </c>
       <c r="U40" t="n">
         <v>197.7951349081526</v>
@@ -3740,7 +3740,7 @@
         <v>294.2671011621876</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8061512697146</v>
+        <v>276.8061512697145</v>
       </c>
       <c r="D41" t="n">
         <v>266.21630111939</v>
@@ -3749,7 +3749,7 @@
         <v>293.4636295709688</v>
       </c>
       <c r="F41" t="n">
-        <v>318.4093052404185</v>
+        <v>385.5855351412113</v>
       </c>
       <c r="G41" t="n">
         <v>324.5000567995937</v>
@@ -3758,7 +3758,7 @@
         <v>227.0851138953028</v>
       </c>
       <c r="I41" t="n">
-        <v>31.95281395930169</v>
+        <v>31.95281395930168</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.32309145276706</v>
+        <v>67.32309145276704</v>
       </c>
       <c r="T41" t="n">
         <v>124.403530774966</v>
@@ -3800,7 +3800,7 @@
         <v>239.2855179688419</v>
       </c>
       <c r="W41" t="n">
-        <v>327.9504581169115</v>
+        <v>260.77422821612</v>
       </c>
       <c r="X41" t="n">
         <v>281.2643601771761</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.36523968064431</v>
+        <v>91.36523968064429</v>
       </c>
       <c r="C43" t="n">
-        <v>78.78008059733484</v>
+        <v>78.78008059733483</v>
       </c>
       <c r="D43" t="n">
-        <v>60.14873251691937</v>
+        <v>60.14873251691935</v>
       </c>
       <c r="E43" t="n">
-        <v>57.96722214527618</v>
+        <v>57.96722214527617</v>
       </c>
       <c r="F43" t="n">
-        <v>56.95430752163826</v>
+        <v>56.95430752163824</v>
       </c>
       <c r="G43" t="n">
-        <v>78.47641649466787</v>
+        <v>78.47641649466786</v>
       </c>
       <c r="H43" t="n">
-        <v>64.44433863775619</v>
+        <v>64.44433863775618</v>
       </c>
       <c r="I43" t="n">
-        <v>35.47285828830128</v>
+        <v>35.47285828830127</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71274719483473</v>
+        <v>41.71274719483472</v>
       </c>
       <c r="S43" t="n">
         <v>117.2891714546932</v>
@@ -3961,7 +3961,7 @@
         <v>198.056257835298</v>
       </c>
       <c r="X43" t="n">
-        <v>137.2429148877442</v>
+        <v>137.2429148877441</v>
       </c>
       <c r="Y43" t="n">
         <v>130.1179128508018</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>298.745516488907</v>
+        <v>298.7455164889071</v>
       </c>
       <c r="C44" t="n">
-        <v>281.2845665964339</v>
+        <v>281.284566596434</v>
       </c>
       <c r="D44" t="n">
-        <v>270.6947164461094</v>
+        <v>270.6947164461095</v>
       </c>
       <c r="E44" t="n">
-        <v>297.9420448976882</v>
+        <v>297.9420448976883</v>
       </c>
       <c r="F44" t="n">
         <v>322.8877205671379</v>
@@ -3992,10 +3992,10 @@
         <v>328.9784721263131</v>
       </c>
       <c r="H44" t="n">
-        <v>231.5635292220222</v>
+        <v>231.5635292220223</v>
       </c>
       <c r="I44" t="n">
-        <v>36.43122928602109</v>
+        <v>36.43122928602116</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.80150677948646</v>
+        <v>71.80150677948653</v>
       </c>
       <c r="T44" t="n">
-        <v>128.8819461016854</v>
+        <v>128.8819461016855</v>
       </c>
       <c r="U44" t="n">
-        <v>167.170452516123</v>
+        <v>167.1704525161231</v>
       </c>
       <c r="V44" t="n">
-        <v>243.7639332955613</v>
+        <v>243.7639332955614</v>
       </c>
       <c r="W44" t="n">
         <v>265.2526435428395</v>
@@ -4043,7 +4043,7 @@
         <v>285.7427755038955</v>
       </c>
       <c r="Y44" t="n">
-        <v>302.24961348148</v>
+        <v>302.2496134814801</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.84365500736371</v>
+        <v>95.84365500736378</v>
       </c>
       <c r="C46" t="n">
-        <v>83.25849592405424</v>
+        <v>83.25849592405432</v>
       </c>
       <c r="D46" t="n">
-        <v>64.62714784363877</v>
+        <v>64.62714784363884</v>
       </c>
       <c r="E46" t="n">
-        <v>62.44563747199558</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>61.43272284835766</v>
+        <v>61.43272284835773</v>
       </c>
       <c r="G46" t="n">
-        <v>82.95483182138727</v>
+        <v>82.95483182138734</v>
       </c>
       <c r="H46" t="n">
-        <v>68.92275396447559</v>
+        <v>68.92275396447566</v>
       </c>
       <c r="I46" t="n">
-        <v>39.95127361502068</v>
+        <v>39.95127361502075</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.19116252155413</v>
+        <v>46.1911625215542</v>
       </c>
       <c r="S46" t="n">
-        <v>121.7675867814126</v>
+        <v>121.7675867814127</v>
       </c>
       <c r="T46" t="n">
-        <v>139.4802050684896</v>
+        <v>139.4802050684897</v>
       </c>
       <c r="U46" t="n">
-        <v>202.273550234872</v>
+        <v>202.2735502348721</v>
       </c>
       <c r="V46" t="n">
-        <v>168.1493181492544</v>
+        <v>168.1493181492545</v>
       </c>
       <c r="W46" t="n">
-        <v>202.5346731620174</v>
+        <v>202.5346731620175</v>
       </c>
       <c r="X46" t="n">
         <v>141.7213302144636</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.82732405626903</v>
+        <v>90.27296152826317</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D2" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C3" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D3" t="n">
         <v>521.6723209211027</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>938.5384421145338</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>765.1210975652027</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>765.1210975652027</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>765.1210975652027</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>765.1210975652027</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +4471,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
         <v>41.77557929797318</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>710.516763498309</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>528.5815077689649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.2295980564601</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C6" t="n">
-        <v>185.7765687753331</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D6" t="n">
-        <v>185.7765687753331</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E6" t="n">
-        <v>26.53911376987762</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="F6" t="n">
-        <v>26.53911376987762</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>40.11725338981685</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>40.11725338981685</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>360.2295980564601</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W6" t="n">
-        <v>360.2295980564601</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X6" t="n">
-        <v>360.2295980564601</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y6" t="n">
-        <v>360.2295980564601</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="7">
@@ -4702,22 +4702,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112489</v>
       </c>
       <c r="C8" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112489</v>
       </c>
       <c r="D8" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112489</v>
       </c>
       <c r="E8" t="n">
-        <v>255.2650026197978</v>
+        <v>568.2253115112489</v>
       </c>
       <c r="F8" t="n">
-        <v>40.56170762187429</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800421</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613333</v>
@@ -4814,7 +4814,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O8" t="n">
         <v>950.1371873885138</v>
@@ -4835,19 +4835,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>834.1263559068718</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>834.1263559068718</v>
       </c>
       <c r="W8" t="n">
-        <v>787.0670914110435</v>
+        <v>834.1263559068718</v>
       </c>
       <c r="X8" t="n">
-        <v>521.1660470154206</v>
+        <v>834.1263559068718</v>
       </c>
       <c r="Y8" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112489</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.91878668801792</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="C9" t="n">
-        <v>75.91878668801792</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="D9" t="n">
-        <v>75.91878668801792</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
         <v>21.05936271613333</v>
@@ -4887,19 +4887,19 @@
         <v>146.4169227739707</v>
       </c>
       <c r="L9" t="n">
-        <v>387.0204506688332</v>
+        <v>376.3800286423199</v>
       </c>
       <c r="M9" t="n">
-        <v>536.5632821650579</v>
+        <v>543.6051081105542</v>
       </c>
       <c r="N9" t="n">
-        <v>536.5632821650579</v>
+        <v>804.2147217227041</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490202</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806666</v>
@@ -4908,25 +4908,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T9" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U9" t="n">
-        <v>726.6826938902474</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="V9" t="n">
-        <v>491.5305856585047</v>
+        <v>547.2623070089408</v>
       </c>
       <c r="W9" t="n">
-        <v>491.5305856585047</v>
+        <v>537.2736149472717</v>
       </c>
       <c r="X9" t="n">
-        <v>283.6790854529718</v>
+        <v>537.2736149472717</v>
       </c>
       <c r="Y9" t="n">
-        <v>75.91878668801792</v>
+        <v>537.2736149472717</v>
       </c>
     </row>
     <row r="10">
@@ -4942,25 +4942,25 @@
         <v>182.5089274706534</v>
       </c>
       <c r="D10" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E10" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F10" t="n">
-        <v>38.68360465423048</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="G10" t="n">
-        <v>38.68360465423048</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="H10" t="n">
-        <v>38.68360465423048</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="I10" t="n">
-        <v>38.68360465423048</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J10" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
         <v>21.05936271613333</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1704.453731328194</v>
+        <v>2002.946799351108</v>
       </c>
       <c r="C11" t="n">
-        <v>1629.947206938457</v>
+        <v>1669.473658679959</v>
       </c>
       <c r="D11" t="n">
-        <v>1629.947206938457</v>
+        <v>1330.643697590824</v>
       </c>
       <c r="E11" t="n">
-        <v>1263.594691857828</v>
+        <v>964.2911825101951</v>
       </c>
       <c r="F11" t="n">
-        <v>872.0445245858359</v>
+        <v>572.7410152382031</v>
       </c>
       <c r="G11" t="n">
-        <v>474.3420830116467</v>
+        <v>175.0385736640139</v>
       </c>
       <c r="H11" t="n">
-        <v>175.038573664014</v>
+        <v>175.0385736640139</v>
       </c>
       <c r="I11" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="J11" t="n">
-        <v>257.2860068254772</v>
+        <v>257.2860068254769</v>
       </c>
       <c r="K11" t="n">
-        <v>654.4699642143169</v>
+        <v>654.4699642143165</v>
       </c>
       <c r="L11" t="n">
         <v>1199.488412305379</v>
@@ -5060,31 +5060,31 @@
         <v>3402.077960302556</v>
       </c>
       <c r="Q11" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="R11" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="S11" t="n">
-        <v>3503.992150150811</v>
+        <v>3503.992150150812</v>
       </c>
       <c r="T11" t="n">
-        <v>3308.407411631801</v>
+        <v>3308.407411631802</v>
       </c>
       <c r="U11" t="n">
         <v>3074.147414108309</v>
       </c>
       <c r="V11" t="n">
-        <v>2762.520264282354</v>
+        <v>3074.147414108309</v>
       </c>
       <c r="W11" t="n">
-        <v>2429.187346529855</v>
+        <v>2740.814496355811</v>
       </c>
       <c r="X11" t="n">
-        <v>2075.157325786391</v>
+        <v>2740.814496355811</v>
       </c>
       <c r="Y11" t="n">
-        <v>1704.453731328194</v>
+        <v>2370.110901897614</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4758700106271</v>
+        <v>1970.710990375246</v>
       </c>
       <c r="C12" t="n">
-        <v>813.0228407295001</v>
+        <v>1796.257961094119</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0884310682488</v>
+        <v>1647.323551432868</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8509760627933</v>
+        <v>1488.086096427412</v>
       </c>
       <c r="F12" t="n">
-        <v>358.3164180896782</v>
+        <v>1341.551538454297</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8480555010635</v>
+        <v>1204.083175865683</v>
       </c>
       <c r="H12" t="n">
-        <v>119.671653018077</v>
+        <v>1102.906773382696</v>
       </c>
       <c r="I12" t="n">
-        <v>72.83839758506917</v>
+        <v>1056.073517949688</v>
       </c>
       <c r="J12" t="n">
-        <v>72.83839758506917</v>
+        <v>1172.23587073765</v>
       </c>
       <c r="K12" t="n">
-        <v>397.9992036818377</v>
+        <v>1297.593430795487</v>
       </c>
       <c r="L12" t="n">
-        <v>804.4197360250992</v>
+        <v>1796.216658215219</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.755055554801</v>
+        <v>1944.124053906612</v>
       </c>
       <c r="N12" t="n">
-        <v>1469.275711192419</v>
+        <v>2610.45617399985</v>
       </c>
       <c r="O12" t="n">
-        <v>2012.423744280479</v>
+        <v>3153.604207087911</v>
       </c>
       <c r="P12" t="n">
-        <v>2431.344857932698</v>
+        <v>3572.52532074013</v>
       </c>
       <c r="Q12" t="n">
-        <v>2658.68475888884</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.898667178851</v>
+        <v>3619.13378754347</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.931015962151</v>
+        <v>3469.16613632677</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.833032459686</v>
+        <v>3272.068152824305</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.692470961126</v>
+        <v>3043.927591325745</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.540362729383</v>
+        <v>2808.775483094003</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.303006001182</v>
+        <v>2554.538126365801</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.451505795649</v>
+        <v>2346.686626160268</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.691207030695</v>
+        <v>2138.926327395314</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>332.0337857926804</v>
+        <v>646.0179289569134</v>
       </c>
       <c r="C13" t="n">
-        <v>332.0337857926804</v>
+        <v>496.517483546622</v>
       </c>
       <c r="D13" t="n">
-        <v>201.3528838979601</v>
+        <v>365.8365816519017</v>
       </c>
       <c r="E13" t="n">
-        <v>72.87552783318249</v>
+        <v>237.3592255871239</v>
       </c>
       <c r="F13" t="n">
-        <v>72.87552783318249</v>
+        <v>237.3592255871239</v>
       </c>
       <c r="G13" t="n">
-        <v>72.87552783318249</v>
+        <v>88.16551159366782</v>
       </c>
       <c r="H13" t="n">
-        <v>72.87552783318249</v>
+        <v>72.87552783318243</v>
       </c>
       <c r="I13" t="n">
-        <v>72.87552783318249</v>
+        <v>72.87552783318243</v>
       </c>
       <c r="J13" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="K13" t="n">
-        <v>190.3610951529681</v>
+        <v>190.3610951529682</v>
       </c>
       <c r="L13" t="n">
-        <v>390.9489687483114</v>
+        <v>390.9489687483116</v>
       </c>
       <c r="M13" t="n">
-        <v>611.7943822505094</v>
+        <v>611.79438225051</v>
       </c>
       <c r="N13" t="n">
-        <v>833.2761436983046</v>
+        <v>833.2761436983053</v>
       </c>
       <c r="O13" t="n">
-        <v>1023.288265503274</v>
+        <v>1023.288265503275</v>
       </c>
       <c r="P13" t="n">
-        <v>1165.105063912582</v>
+        <v>1165.105063912583</v>
       </c>
       <c r="Q13" t="n">
         <v>1185.717033463133</v>
@@ -5227,22 +5227,22 @@
         <v>1185.717033463133</v>
       </c>
       <c r="T13" t="n">
-        <v>979.4269828564418</v>
+        <v>1185.717033463133</v>
       </c>
       <c r="U13" t="n">
-        <v>709.7093108695667</v>
+        <v>915.9993614762584</v>
       </c>
       <c r="V13" t="n">
-        <v>709.7093108695667</v>
+        <v>915.9993614762584</v>
       </c>
       <c r="W13" t="n">
-        <v>439.7278783502215</v>
+        <v>646.0179289569134</v>
       </c>
       <c r="X13" t="n">
-        <v>332.0337857926804</v>
+        <v>646.0179289569134</v>
       </c>
       <c r="Y13" t="n">
-        <v>332.0337857926804</v>
+        <v>646.0179289569134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1952.332075290227</v>
+        <v>1827.132997064959</v>
       </c>
       <c r="C14" t="n">
-        <v>1607.328947712602</v>
+        <v>1482.129869487334</v>
       </c>
       <c r="D14" t="n">
-        <v>1607.328947712602</v>
+        <v>1147.82356024337</v>
       </c>
       <c r="E14" t="n">
-        <v>1245.500084477144</v>
+        <v>1147.82356024337</v>
       </c>
       <c r="F14" t="n">
-        <v>858.4735690503228</v>
+        <v>760.7970448165488</v>
       </c>
       <c r="G14" t="n">
-        <v>465.2947793213048</v>
+        <v>367.6182550875308</v>
       </c>
       <c r="H14" t="n">
-        <v>170.514921818843</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="I14" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J14" t="n">
-        <v>257.2860068254768</v>
+        <v>257.2860068254769</v>
       </c>
       <c r="K14" t="n">
-        <v>654.4699642143163</v>
+        <v>654.4699642143165</v>
       </c>
       <c r="L14" t="n">
-        <v>1199.488412305378</v>
+        <v>1199.488412305379</v>
       </c>
       <c r="M14" t="n">
-        <v>1822.532995091974</v>
+        <v>1822.532995091975</v>
       </c>
       <c r="N14" t="n">
         <v>2441.027093055302</v>
       </c>
       <c r="O14" t="n">
-        <v>2979.865893503659</v>
+        <v>2979.86589350366</v>
       </c>
       <c r="P14" t="n">
-        <v>3402.077960302555</v>
+        <v>3402.077960302556</v>
       </c>
       <c r="Q14" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="R14" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="S14" t="n">
-        <v>3550.529190084046</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="T14" t="n">
-        <v>3359.468103410208</v>
+        <v>3450.858792579621</v>
       </c>
       <c r="U14" t="n">
-        <v>3359.468103410208</v>
+        <v>3221.1224469013</v>
       </c>
       <c r="V14" t="n">
-        <v>3359.468103410208</v>
+        <v>2914.018948920515</v>
       </c>
       <c r="W14" t="n">
-        <v>3030.65883750288</v>
+        <v>2905.459759277612</v>
       </c>
       <c r="X14" t="n">
-        <v>2681.152468604587</v>
+        <v>2555.953390379319</v>
       </c>
       <c r="Y14" t="n">
-        <v>2314.972525991562</v>
+        <v>2189.773447766293</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>504.8509760627932</v>
       </c>
       <c r="F15" t="n">
-        <v>358.3164180896782</v>
+        <v>358.3164180896781</v>
       </c>
       <c r="G15" t="n">
         <v>220.8480555010634</v>
@@ -5352,28 +5352,28 @@
         <v>119.6716530180769</v>
       </c>
       <c r="I15" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J15" t="n">
         <v>189.0007503730304</v>
       </c>
       <c r="K15" t="n">
-        <v>514.1615564697988</v>
+        <v>252.3409718273462</v>
       </c>
       <c r="L15" t="n">
-        <v>804.4197360250982</v>
+        <v>750.9641992470788</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.7550555548</v>
+        <v>1384.813208747964</v>
       </c>
       <c r="N15" t="n">
-        <v>1469.275711192418</v>
+        <v>1863.498689674098</v>
       </c>
       <c r="O15" t="n">
-        <v>2012.423744280479</v>
+        <v>2406.646722762159</v>
       </c>
       <c r="P15" t="n">
-        <v>2431.344857932697</v>
+        <v>2589.29020037551</v>
       </c>
       <c r="Q15" t="n">
         <v>2658.684758888839</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.5084597333542</v>
+        <v>486.4677291434672</v>
       </c>
       <c r="C16" t="n">
-        <v>217.5084597333542</v>
+        <v>341.490935578347</v>
       </c>
       <c r="D16" t="n">
-        <v>217.5084597333542</v>
+        <v>215.333685528798</v>
       </c>
       <c r="E16" t="n">
-        <v>217.5084597333542</v>
+        <v>91.37998130919176</v>
       </c>
       <c r="F16" t="n">
-        <v>217.5084597333542</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="G16" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="H16" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="I16" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J16" t="n">
-        <v>77.23563740234547</v>
+        <v>77.23563740234565</v>
       </c>
       <c r="K16" t="n">
-        <v>199.1919661436966</v>
+        <v>199.1919661436968</v>
       </c>
       <c r="L16" t="n">
-        <v>404.213470912492</v>
+        <v>404.2134709124925</v>
       </c>
       <c r="M16" t="n">
-        <v>629.4925155881423</v>
+        <v>629.4925155881431</v>
       </c>
       <c r="N16" t="n">
-        <v>855.4079082093896</v>
+        <v>855.4079082093906</v>
       </c>
       <c r="O16" t="n">
-        <v>1049.853661187812</v>
+        <v>1049.853661187813</v>
       </c>
       <c r="P16" t="n">
-        <v>1196.104090770571</v>
+        <v>1196.104090770573</v>
       </c>
       <c r="Q16" t="n">
-        <v>1221.149691494574</v>
+        <v>1221.149691494576</v>
       </c>
       <c r="R16" t="n">
-        <v>1113.61464884107</v>
+        <v>1221.149691494576</v>
       </c>
       <c r="S16" t="n">
-        <v>1113.61464884107</v>
+        <v>1221.149691494576</v>
       </c>
       <c r="T16" t="n">
-        <v>911.8482500795506</v>
+        <v>1221.149691494576</v>
       </c>
       <c r="U16" t="n">
-        <v>871.3804147180817</v>
+        <v>955.9556713528718</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6553158749814</v>
+        <v>955.9556713528718</v>
       </c>
       <c r="W16" t="n">
-        <v>375.1975352008074</v>
+        <v>690.4978906786979</v>
       </c>
       <c r="X16" t="n">
-        <v>375.1975352008074</v>
+        <v>486.4677291434672</v>
       </c>
       <c r="Y16" t="n">
-        <v>375.1975352008074</v>
+        <v>486.4677291434672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1860.497265404995</v>
+        <v>1860.497265404996</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.371440560112</v>
+        <v>1576.371440560113</v>
       </c>
       <c r="D17" t="n">
-        <v>1302.94243404889</v>
+        <v>1302.942434048891</v>
       </c>
       <c r="E17" t="n">
         <v>1001.990873546175</v>
       </c>
       <c r="F17" t="n">
-        <v>675.841660852096</v>
+        <v>675.8416608520965</v>
       </c>
       <c r="G17" t="n">
-        <v>343.5401738558201</v>
+        <v>343.5401738558202</v>
       </c>
       <c r="H17" t="n">
-        <v>109.6376190861006</v>
+        <v>109.6376190861007</v>
       </c>
       <c r="I17" t="n">
         <v>72.83839758506917</v>
@@ -5540,25 +5540,25 @@
         <v>3641.919879253458</v>
       </c>
       <c r="S17" t="n">
-        <v>3569.393104728724</v>
+        <v>3569.393104728725</v>
       </c>
       <c r="T17" t="n">
         <v>3439.209320787628</v>
       </c>
       <c r="U17" t="n">
-        <v>3270.350277842049</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V17" t="n">
-        <v>3024.124082594007</v>
+        <v>3024.124082594008</v>
       </c>
       <c r="W17" t="n">
-        <v>2756.192119419422</v>
+        <v>2756.192119419423</v>
       </c>
       <c r="X17" t="n">
-        <v>2467.563053253871</v>
+        <v>2467.563053253872</v>
       </c>
       <c r="Y17" t="n">
-        <v>2162.260413373588</v>
+        <v>2162.260413373589</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>72.83839758506917</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0007503730304</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="K18" t="n">
-        <v>314.3583104308678</v>
+        <v>397.9992036818377</v>
       </c>
       <c r="L18" t="n">
-        <v>812.9815378506003</v>
+        <v>627.9623095501868</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.830547351485</v>
+        <v>948.2976290798886</v>
       </c>
       <c r="N18" t="n">
-        <v>2113.162667444723</v>
+        <v>1614.629749173127</v>
       </c>
       <c r="O18" t="n">
-        <v>2476.041281275489</v>
+        <v>2157.777782261188</v>
       </c>
       <c r="P18" t="n">
-        <v>2658.68475888884</v>
+        <v>2431.344857932698</v>
       </c>
       <c r="Q18" t="n">
         <v>2658.68475888884</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>457.0145264384785</v>
+        <v>479.9242782812628</v>
       </c>
       <c r="C19" t="n">
-        <v>457.0145264384785</v>
+        <v>395.8247874488846</v>
       </c>
       <c r="D19" t="n">
-        <v>391.7345791216716</v>
+        <v>330.5448401320775</v>
       </c>
       <c r="E19" t="n">
-        <v>328.6581776348073</v>
+        <v>328.658177634808</v>
       </c>
       <c r="F19" t="n">
-        <v>266.6049222324258</v>
+        <v>266.6049222324265</v>
       </c>
       <c r="G19" t="n">
-        <v>182.812162816883</v>
+        <v>182.8121628168837</v>
       </c>
       <c r="H19" t="n">
-        <v>113.1932194184228</v>
+        <v>113.1932194184235</v>
       </c>
       <c r="I19" t="n">
         <v>72.83839758506917</v>
@@ -5674,13 +5674,13 @@
         <v>136.9014818107062</v>
       </c>
       <c r="K19" t="n">
-        <v>318.523654960418</v>
+        <v>318.5236549604181</v>
       </c>
       <c r="L19" t="n">
-        <v>583.211004137574</v>
+        <v>583.2110041375743</v>
       </c>
       <c r="M19" t="n">
-        <v>868.1558932215851</v>
+        <v>868.1558932215853</v>
       </c>
       <c r="N19" t="n">
         <v>1153.737130251193</v>
@@ -5695,28 +5695,28 @@
         <v>1698.47644676146</v>
       </c>
       <c r="R19" t="n">
-        <v>1675.566694918676</v>
+        <v>1698.47644676146</v>
       </c>
       <c r="S19" t="n">
-        <v>1552.569132513208</v>
+        <v>1575.478884355992</v>
       </c>
       <c r="T19" t="n">
-        <v>1411.680036484431</v>
+        <v>1434.589788327215</v>
       </c>
       <c r="U19" t="n">
-        <v>1207.363319075469</v>
+        <v>1230.273070918253</v>
       </c>
       <c r="V19" t="n">
-        <v>1037.515522965111</v>
+        <v>1060.425274807895</v>
       </c>
       <c r="W19" t="n">
-        <v>832.9350450236791</v>
+        <v>855.8447968664634</v>
       </c>
       <c r="X19" t="n">
-        <v>689.7821862211907</v>
+        <v>712.6919380639749</v>
       </c>
       <c r="Y19" t="n">
-        <v>553.8262991731895</v>
+        <v>576.7360510159737</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1576.371440560112</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.942434048891</v>
+        <v>1302.94243404889</v>
       </c>
       <c r="E20" t="n">
         <v>1001.990873546175</v>
       </c>
       <c r="F20" t="n">
-        <v>675.8416608520967</v>
+        <v>675.8416608520961</v>
       </c>
       <c r="G20" t="n">
-        <v>343.5401738558207</v>
+        <v>343.5401738558202</v>
       </c>
       <c r="H20" t="n">
-        <v>109.6376190861007</v>
+        <v>109.6376190861006</v>
       </c>
       <c r="I20" t="n">
         <v>72.83839758506917</v>
@@ -5771,19 +5771,19 @@
         <v>3402.077960302556</v>
       </c>
       <c r="Q20" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="R20" t="n">
-        <v>3641.919879253458</v>
+        <v>3641.919879253459</v>
       </c>
       <c r="S20" t="n">
         <v>3569.393104728725</v>
       </c>
       <c r="T20" t="n">
-        <v>3439.209320787628</v>
+        <v>3439.209320787629</v>
       </c>
       <c r="U20" t="n">
-        <v>3270.350277842049</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V20" t="n">
         <v>3024.124082594008</v>
@@ -5792,10 +5792,10 @@
         <v>2756.192119419422</v>
       </c>
       <c r="X20" t="n">
-        <v>2467.563053253872</v>
+        <v>2467.563053253871</v>
       </c>
       <c r="Y20" t="n">
-        <v>2162.260413373589</v>
+        <v>2162.260413373588</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>72.83839758506917</v>
       </c>
       <c r="J21" t="n">
-        <v>72.83839758506917</v>
+        <v>189.0007503730304</v>
       </c>
       <c r="K21" t="n">
-        <v>198.1959576429066</v>
+        <v>440.9592882227655</v>
       </c>
       <c r="L21" t="n">
-        <v>696.8191850626391</v>
+        <v>939.582515642498</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.166569580861</v>
+        <v>1573.431525143383</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.498689674099</v>
+        <v>2239.763645236621</v>
       </c>
       <c r="O21" t="n">
-        <v>2406.64672276216</v>
+        <v>2239.763645236621</v>
       </c>
       <c r="P21" t="n">
-        <v>2589.290200375511</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q21" t="n">
         <v>2658.68475888884</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>433.2665383605006</v>
+        <v>541.1140172708571</v>
       </c>
       <c r="C22" t="n">
-        <v>349.1670475281225</v>
+        <v>457.0145264384789</v>
       </c>
       <c r="D22" t="n">
-        <v>283.8871002113156</v>
+        <v>391.734579121672</v>
       </c>
       <c r="E22" t="n">
-        <v>220.8106987244513</v>
+        <v>328.6581776348077</v>
       </c>
       <c r="F22" t="n">
-        <v>158.7574433220697</v>
+        <v>266.6049222324262</v>
       </c>
       <c r="G22" t="n">
-        <v>158.7574433220697</v>
+        <v>182.8121628168834</v>
       </c>
       <c r="H22" t="n">
         <v>113.1932194184235</v>
@@ -5911,13 +5911,13 @@
         <v>136.9014818107062</v>
       </c>
       <c r="K22" t="n">
-        <v>318.523654960418</v>
+        <v>318.5236549604181</v>
       </c>
       <c r="L22" t="n">
-        <v>583.211004137574</v>
+        <v>583.2110041375743</v>
       </c>
       <c r="M22" t="n">
-        <v>868.155893221585</v>
+        <v>868.1558932215853</v>
       </c>
       <c r="N22" t="n">
         <v>1153.737130251193</v>
@@ -5926,16 +5926,16 @@
         <v>1407.848727637976</v>
       </c>
       <c r="P22" t="n">
-        <v>1613.765001629096</v>
+        <v>1613.765001629097</v>
       </c>
       <c r="Q22" t="n">
-        <v>1698.476446761459</v>
+        <v>1698.47644676146</v>
       </c>
       <c r="R22" t="n">
-        <v>1651.818706840697</v>
+        <v>1651.818706840698</v>
       </c>
       <c r="S22" t="n">
-        <v>1528.82114443523</v>
+        <v>1528.821144435231</v>
       </c>
       <c r="T22" t="n">
         <v>1387.932048406453</v>
@@ -5944,16 +5944,16 @@
         <v>1183.615330997491</v>
       </c>
       <c r="V22" t="n">
-        <v>1013.767534887133</v>
+        <v>1121.61501379749</v>
       </c>
       <c r="W22" t="n">
-        <v>809.1870569457012</v>
+        <v>917.0345358560578</v>
       </c>
       <c r="X22" t="n">
-        <v>666.0341981432127</v>
+        <v>773.8816770535693</v>
       </c>
       <c r="Y22" t="n">
-        <v>530.0783110952115</v>
+        <v>637.9257900055679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.497265404994</v>
+        <v>1860.497265404995</v>
       </c>
       <c r="C23" t="n">
-        <v>1576.371440560111</v>
+        <v>1576.371440560112</v>
       </c>
       <c r="D23" t="n">
-        <v>1302.94243404889</v>
+        <v>1302.942434048891</v>
       </c>
       <c r="E23" t="n">
-        <v>1001.990873546174</v>
+        <v>1001.990873546176</v>
       </c>
       <c r="F23" t="n">
-        <v>675.841660852096</v>
+        <v>675.8416608520968</v>
       </c>
       <c r="G23" t="n">
-        <v>343.5401738558201</v>
+        <v>343.5401738558207</v>
       </c>
       <c r="H23" t="n">
-        <v>109.6376190861006</v>
+        <v>109.6376190861008</v>
       </c>
       <c r="I23" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="J23" t="n">
-        <v>257.2860068254768</v>
+        <v>257.2860068254772</v>
       </c>
       <c r="K23" t="n">
-        <v>654.4699642143163</v>
+        <v>654.4699642143169</v>
       </c>
       <c r="L23" t="n">
         <v>1199.488412305379</v>
@@ -6020,19 +6020,19 @@
         <v>3439.209320787628</v>
       </c>
       <c r="U23" t="n">
-        <v>3270.350277842048</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V23" t="n">
-        <v>3024.124082594006</v>
+        <v>3024.124082594008</v>
       </c>
       <c r="W23" t="n">
-        <v>2756.192119419421</v>
+        <v>2756.192119419422</v>
       </c>
       <c r="X23" t="n">
-        <v>2467.56305325387</v>
+        <v>2467.563053253871</v>
       </c>
       <c r="Y23" t="n">
-        <v>2162.260413373587</v>
+        <v>2162.260413373588</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>72.83839758506917</v>
       </c>
       <c r="J24" t="n">
-        <v>72.83839758506917</v>
+        <v>189.0007503730304</v>
       </c>
       <c r="K24" t="n">
-        <v>72.83839758506917</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L24" t="n">
-        <v>571.4616250048017</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.310634505686</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N24" t="n">
-        <v>1871.642754598925</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O24" t="n">
-        <v>2170.369086723293</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="P24" t="n">
-        <v>2589.290200375511</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q24" t="n">
         <v>2658.68475888884</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>541.1140172708573</v>
+        <v>541.1140172708576</v>
       </c>
       <c r="C25" t="n">
-        <v>457.0145264384792</v>
+        <v>457.0145264384797</v>
       </c>
       <c r="D25" t="n">
-        <v>391.7345791216723</v>
+        <v>391.7345791216727</v>
       </c>
       <c r="E25" t="n">
-        <v>328.658177634808</v>
+        <v>328.6581776348083</v>
       </c>
       <c r="F25" t="n">
-        <v>266.6049222324265</v>
+        <v>266.6049222324267</v>
       </c>
       <c r="G25" t="n">
-        <v>182.8121628168837</v>
+        <v>182.8121628168838</v>
       </c>
       <c r="H25" t="n">
-        <v>113.1932194184234</v>
+        <v>113.1932194184235</v>
       </c>
       <c r="I25" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="J25" t="n">
-        <v>136.9014818107065</v>
+        <v>136.9014818107061</v>
       </c>
       <c r="K25" t="n">
-        <v>318.5236549604183</v>
+        <v>318.5236549604178</v>
       </c>
       <c r="L25" t="n">
-        <v>583.2110041375745</v>
+        <v>583.2110041375738</v>
       </c>
       <c r="M25" t="n">
-        <v>868.1558932215853</v>
+        <v>868.1558932215847</v>
       </c>
       <c r="N25" t="n">
         <v>1153.737130251193</v>
@@ -6166,31 +6166,31 @@
         <v>1613.765001629096</v>
       </c>
       <c r="Q25" t="n">
-        <v>1698.47644676146</v>
+        <v>1698.476446761459</v>
       </c>
       <c r="R25" t="n">
-        <v>1651.818706840698</v>
+        <v>1651.818706840697</v>
       </c>
       <c r="S25" t="n">
         <v>1528.82114443523</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.932048406453</v>
+        <v>1398.967754582099</v>
       </c>
       <c r="U25" t="n">
-        <v>1183.615330997491</v>
+        <v>1194.651037173138</v>
       </c>
       <c r="V25" t="n">
-        <v>1121.61501379749</v>
+        <v>1024.80324106278</v>
       </c>
       <c r="W25" t="n">
-        <v>917.034535856058</v>
+        <v>820.2227631213476</v>
       </c>
       <c r="X25" t="n">
-        <v>773.8816770535694</v>
+        <v>677.069904318859</v>
       </c>
       <c r="Y25" t="n">
-        <v>637.9257900055682</v>
+        <v>541.1140172708576</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1302.942434048891</v>
       </c>
       <c r="E26" t="n">
-        <v>1001.990873546176</v>
+        <v>1001.990873546175</v>
       </c>
       <c r="F26" t="n">
-        <v>675.8416608520971</v>
+        <v>675.8416608520965</v>
       </c>
       <c r="G26" t="n">
-        <v>343.5401738558212</v>
+        <v>343.5401738558207</v>
       </c>
       <c r="H26" t="n">
-        <v>109.6376190861015</v>
+        <v>109.6376190861006</v>
       </c>
       <c r="I26" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="J26" t="n">
-        <v>257.2860068254772</v>
+        <v>257.2860068254768</v>
       </c>
       <c r="K26" t="n">
-        <v>654.4699642143169</v>
+        <v>654.4699642143163</v>
       </c>
       <c r="L26" t="n">
         <v>1199.488412305379</v>
@@ -6257,10 +6257,10 @@
         <v>3439.209320787628</v>
       </c>
       <c r="U26" t="n">
-        <v>3270.350277842051</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V26" t="n">
-        <v>3024.124082594009</v>
+        <v>3024.124082594008</v>
       </c>
       <c r="W26" t="n">
         <v>2756.192119419423</v>
@@ -6303,25 +6303,25 @@
         <v>72.83839758506917</v>
       </c>
       <c r="J27" t="n">
-        <v>72.83839758506917</v>
+        <v>189.0007503730304</v>
       </c>
       <c r="K27" t="n">
-        <v>72.83839758506917</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L27" t="n">
-        <v>571.4616250048017</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M27" t="n">
-        <v>1205.310634505686</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N27" t="n">
-        <v>1871.642754598925</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O27" t="n">
-        <v>2170.369086723293</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="P27" t="n">
-        <v>2589.290200375511</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q27" t="n">
         <v>2658.68475888884</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>475.8340699540504</v>
+        <v>541.1140172708573</v>
       </c>
       <c r="C28" t="n">
-        <v>391.7345791216723</v>
+        <v>457.0145264384792</v>
       </c>
       <c r="D28" t="n">
         <v>391.7345791216723</v>
       </c>
       <c r="E28" t="n">
-        <v>328.658177634808</v>
+        <v>328.6581776348079</v>
       </c>
       <c r="F28" t="n">
-        <v>266.6049222324265</v>
+        <v>266.6049222324264</v>
       </c>
       <c r="G28" t="n">
         <v>182.8121628168837</v>
       </c>
       <c r="H28" t="n">
-        <v>113.1932194184235</v>
+        <v>113.1932194184234</v>
       </c>
       <c r="I28" t="n">
         <v>72.83839758506917</v>
@@ -6385,13 +6385,13 @@
         <v>136.9014818107062</v>
       </c>
       <c r="K28" t="n">
-        <v>318.5236549604179</v>
+        <v>318.523654960418</v>
       </c>
       <c r="L28" t="n">
         <v>583.211004137574</v>
       </c>
       <c r="M28" t="n">
-        <v>868.1558932215848</v>
+        <v>868.1558932215852</v>
       </c>
       <c r="N28" t="n">
         <v>1153.737130251193</v>
@@ -6403,31 +6403,31 @@
         <v>1613.765001629096</v>
       </c>
       <c r="Q28" t="n">
-        <v>1698.476446761459</v>
+        <v>1698.47644676146</v>
       </c>
       <c r="R28" t="n">
         <v>1651.818706840698</v>
       </c>
       <c r="S28" t="n">
-        <v>1528.82114443523</v>
+        <v>1528.821144435231</v>
       </c>
       <c r="T28" t="n">
         <v>1387.932048406453</v>
       </c>
       <c r="U28" t="n">
-        <v>1183.615330997491</v>
+        <v>1183.615330997492</v>
       </c>
       <c r="V28" t="n">
-        <v>1056.335066480683</v>
+        <v>1013.767534887133</v>
       </c>
       <c r="W28" t="n">
-        <v>851.7545885392512</v>
+        <v>809.1870569457017</v>
       </c>
       <c r="X28" t="n">
-        <v>708.6017297367626</v>
+        <v>666.0341981432131</v>
       </c>
       <c r="Y28" t="n">
-        <v>572.6458426887613</v>
+        <v>637.9257900055682</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.497265404994</v>
+        <v>1860.497265404995</v>
       </c>
       <c r="C29" t="n">
-        <v>1576.371440560111</v>
+        <v>1576.371440560112</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.942434048889</v>
+        <v>1302.942434048891</v>
       </c>
       <c r="E29" t="n">
-        <v>1001.990873546174</v>
+        <v>1001.990873546175</v>
       </c>
       <c r="F29" t="n">
-        <v>675.8416608520952</v>
+        <v>675.8416608520964</v>
       </c>
       <c r="G29" t="n">
-        <v>343.5401738558202</v>
+        <v>343.5401738558205</v>
       </c>
       <c r="H29" t="n">
-        <v>109.6376190861007</v>
+        <v>109.637619086101</v>
       </c>
       <c r="I29" t="n">
         <v>72.83839758506917</v>
@@ -6488,25 +6488,25 @@
         <v>3641.919879253458</v>
       </c>
       <c r="S29" t="n">
-        <v>3569.393104728724</v>
+        <v>3569.393104728725</v>
       </c>
       <c r="T29" t="n">
         <v>3439.209320787628</v>
       </c>
       <c r="U29" t="n">
-        <v>3270.350277842049</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V29" t="n">
-        <v>3024.124082594007</v>
+        <v>3024.124082594008</v>
       </c>
       <c r="W29" t="n">
-        <v>2756.192119419421</v>
+        <v>2756.192119419423</v>
       </c>
       <c r="X29" t="n">
-        <v>2467.56305325387</v>
+        <v>2467.563053253872</v>
       </c>
       <c r="Y29" t="n">
-        <v>2162.260413373587</v>
+        <v>2162.260413373589</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>72.83839758506917</v>
       </c>
       <c r="K30" t="n">
-        <v>72.83839758506917</v>
+        <v>397.9992036818377</v>
       </c>
       <c r="L30" t="n">
-        <v>571.4616250048017</v>
+        <v>896.6224311015702</v>
       </c>
       <c r="M30" t="n">
-        <v>1205.310634505686</v>
+        <v>1530.471440602455</v>
       </c>
       <c r="N30" t="n">
-        <v>1871.642754598925</v>
+        <v>2196.803560695693</v>
       </c>
       <c r="O30" t="n">
-        <v>2406.64672276216</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="P30" t="n">
-        <v>2589.290200375511</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q30" t="n">
         <v>2658.68475888884</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>541.1140172708577</v>
+        <v>500.7591954375032</v>
       </c>
       <c r="C31" t="n">
-        <v>457.0145264384796</v>
+        <v>416.6597046051251</v>
       </c>
       <c r="D31" t="n">
-        <v>391.7345791216727</v>
+        <v>351.3797572883182</v>
       </c>
       <c r="E31" t="n">
-        <v>328.6581776348083</v>
+        <v>288.3033558014538</v>
       </c>
       <c r="F31" t="n">
-        <v>266.6049222324267</v>
+        <v>226.2501003990723</v>
       </c>
       <c r="G31" t="n">
-        <v>182.8121628168839</v>
+        <v>142.4573409835295</v>
       </c>
       <c r="H31" t="n">
-        <v>113.1932194184235</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="I31" t="n">
         <v>72.83839758506917</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9014818107061</v>
+        <v>136.9014818107063</v>
       </c>
       <c r="K31" t="n">
-        <v>318.5236549604178</v>
+        <v>318.5236549604181</v>
       </c>
       <c r="L31" t="n">
-        <v>583.2110041375739</v>
+        <v>583.2110041375743</v>
       </c>
       <c r="M31" t="n">
-        <v>868.155893221585</v>
+        <v>868.1558932215851</v>
       </c>
       <c r="N31" t="n">
         <v>1153.737130251193</v>
@@ -6640,31 +6640,31 @@
         <v>1613.765001629096</v>
       </c>
       <c r="Q31" t="n">
-        <v>1698.476446761459</v>
+        <v>1698.47644676146</v>
       </c>
       <c r="R31" t="n">
-        <v>1651.818706840697</v>
+        <v>1651.818706840698</v>
       </c>
       <c r="S31" t="n">
         <v>1528.82114443523</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.932048406452</v>
+        <v>1387.932048406453</v>
       </c>
       <c r="U31" t="n">
         <v>1183.615330997491</v>
       </c>
       <c r="V31" t="n">
-        <v>1013.767534887133</v>
+        <v>1081.260191964136</v>
       </c>
       <c r="W31" t="n">
-        <v>809.1870569457006</v>
+        <v>876.679714022704</v>
       </c>
       <c r="X31" t="n">
-        <v>666.0341981432121</v>
+        <v>733.5268552202155</v>
       </c>
       <c r="Y31" t="n">
-        <v>637.9257900055687</v>
+        <v>597.5709681722141</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1828.831702488797</v>
+        <v>1896.686480166364</v>
       </c>
       <c r="C32" t="n">
-        <v>1549.229529489085</v>
+        <v>1617.084307166652</v>
       </c>
       <c r="D32" t="n">
-        <v>1280.324174823034</v>
+        <v>1348.178952500602</v>
       </c>
       <c r="E32" t="n">
-        <v>983.89626616549</v>
+        <v>1051.751043843058</v>
       </c>
       <c r="F32" t="n">
-        <v>662.2707053165825</v>
+        <v>730.1254829941502</v>
       </c>
       <c r="G32" t="n">
-        <v>334.4928701654778</v>
+        <v>402.3476478430454</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1139672409295</v>
+        <v>105.1139672409294</v>
       </c>
       <c r="I32" t="n">
-        <v>72.83839758506917</v>
+        <v>72.83839758506916</v>
       </c>
       <c r="J32" t="n">
-        <v>257.2860068254772</v>
+        <v>257.2860068254768</v>
       </c>
       <c r="K32" t="n">
-        <v>654.4699642143169</v>
+        <v>654.4699642143163</v>
       </c>
       <c r="L32" t="n">
-        <v>1199.488412305379</v>
+        <v>1199.488412305378</v>
       </c>
       <c r="M32" t="n">
-        <v>1822.532995091975</v>
+        <v>1822.532995091974</v>
       </c>
       <c r="N32" t="n">
         <v>2441.027093055302</v>
       </c>
       <c r="O32" t="n">
-        <v>2979.86589350366</v>
+        <v>2979.865893503659</v>
       </c>
       <c r="P32" t="n">
-        <v>3402.077960302556</v>
+        <v>3402.077960302555</v>
       </c>
       <c r="Q32" t="n">
         <v>3641.919879253458</v>
@@ -6725,25 +6725,25 @@
         <v>3641.919879253458</v>
       </c>
       <c r="S32" t="n">
-        <v>3573.916756573896</v>
+        <v>3573.916756573895</v>
       </c>
       <c r="T32" t="n">
         <v>3448.25662447797</v>
       </c>
       <c r="U32" t="n">
-        <v>3283.921233377563</v>
+        <v>3283.921233377562</v>
       </c>
       <c r="V32" t="n">
-        <v>3042.218689974692</v>
+        <v>3042.218689974691</v>
       </c>
       <c r="W32" t="n">
-        <v>2778.810378645278</v>
+        <v>2778.810378645277</v>
       </c>
       <c r="X32" t="n">
-        <v>2494.704964324898</v>
+        <v>2494.704964324897</v>
       </c>
       <c r="Y32" t="n">
-        <v>2126.071198612218</v>
+        <v>2193.925976289786</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4758700106271</v>
+        <v>987.4758700106269</v>
       </c>
       <c r="C33" t="n">
-        <v>813.0228407295001</v>
+        <v>813.0228407294999</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0884310682488</v>
+        <v>664.0884310682486</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8509760627933</v>
+        <v>504.8509760627932</v>
       </c>
       <c r="F33" t="n">
         <v>358.3164180896782</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8480555010635</v>
+        <v>220.8480555010634</v>
       </c>
       <c r="H33" t="n">
-        <v>119.671653018077</v>
+        <v>119.6716530180769</v>
       </c>
       <c r="I33" t="n">
-        <v>72.83839758506917</v>
+        <v>72.83839758506916</v>
       </c>
       <c r="J33" t="n">
-        <v>72.83839758506917</v>
+        <v>72.83839758506916</v>
       </c>
       <c r="K33" t="n">
-        <v>72.83839758506917</v>
+        <v>397.9992036818377</v>
       </c>
       <c r="L33" t="n">
-        <v>563.3175600799758</v>
+        <v>896.6224311015702</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.166569580861</v>
+        <v>1530.471440602455</v>
       </c>
       <c r="N33" t="n">
-        <v>1863.498689674099</v>
+        <v>2196.803560695693</v>
       </c>
       <c r="O33" t="n">
-        <v>2406.64672276216</v>
+        <v>2658.684758888839</v>
       </c>
       <c r="P33" t="n">
-        <v>2589.290200375511</v>
+        <v>2658.684758888839</v>
       </c>
       <c r="Q33" t="n">
-        <v>2658.68475888884</v>
+        <v>2658.684758888839</v>
       </c>
       <c r="R33" t="n">
         <v>2635.898667178851</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.931015962151</v>
+        <v>2485.93101596215</v>
       </c>
       <c r="T33" t="n">
         <v>2288.833032459686</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.4484543546592</v>
+        <v>509.448454354659</v>
       </c>
       <c r="C34" t="n">
-        <v>429.8726153674523</v>
+        <v>429.8726153674521</v>
       </c>
       <c r="D34" t="n">
-        <v>369.1163198958166</v>
+        <v>369.1163198958164</v>
       </c>
       <c r="E34" t="n">
-        <v>310.5635702541234</v>
+        <v>310.5635702541233</v>
       </c>
       <c r="F34" t="n">
         <v>253.033966696913</v>
@@ -6853,19 +6853,19 @@
         <v>108.6695675732523</v>
       </c>
       <c r="I34" t="n">
-        <v>72.83839758506917</v>
+        <v>72.83839758506916</v>
       </c>
       <c r="J34" t="n">
-        <v>141.3351129841584</v>
+        <v>141.3351129841585</v>
       </c>
       <c r="K34" t="n">
-        <v>327.3909173073224</v>
+        <v>327.3909173073225</v>
       </c>
       <c r="L34" t="n">
-        <v>596.5118976579307</v>
+        <v>596.5118976579309</v>
       </c>
       <c r="M34" t="n">
-        <v>885.8904179153939</v>
+        <v>885.890417915394</v>
       </c>
       <c r="N34" t="n">
         <v>1175.905286118454</v>
@@ -6877,13 +6877,13 @@
         <v>1644.800419843262</v>
       </c>
       <c r="Q34" t="n">
-        <v>1733.945496149077</v>
+        <v>1733.945496149078</v>
       </c>
       <c r="R34" t="n">
         <v>1691.811408073487</v>
       </c>
       <c r="S34" t="n">
-        <v>1573.337497513191</v>
+        <v>1573.33749751319</v>
       </c>
       <c r="T34" t="n">
         <v>1436.972053329584</v>
@@ -6895,13 +6895,13 @@
         <v>1071.854843500607</v>
       </c>
       <c r="W34" t="n">
-        <v>871.7980174043464</v>
+        <v>871.7980174043462</v>
       </c>
       <c r="X34" t="n">
-        <v>733.168810447029</v>
+        <v>733.1688104470288</v>
       </c>
       <c r="Y34" t="n">
-        <v>601.736575244199</v>
+        <v>601.7365752441988</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1828.831702488797</v>
+        <v>1896.686480166364</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.229529489085</v>
+        <v>1617.084307166652</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.324174823034</v>
+        <v>1348.178952500602</v>
       </c>
       <c r="E35" t="n">
-        <v>983.89626616549</v>
+        <v>1051.751043843057</v>
       </c>
       <c r="F35" t="n">
-        <v>662.2707053165825</v>
+        <v>730.1254829941497</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4928701654778</v>
+        <v>402.347647843045</v>
       </c>
       <c r="H35" t="n">
-        <v>105.1139672409295</v>
+        <v>172.9687449184967</v>
       </c>
       <c r="I35" t="n">
         <v>72.83839758506916</v>
@@ -6959,28 +6959,28 @@
         <v>3641.919879253458</v>
       </c>
       <c r="R35" t="n">
-        <v>3638.754108083893</v>
+        <v>3641.919879253458</v>
       </c>
       <c r="S35" t="n">
-        <v>3570.75098540433</v>
+        <v>3573.916756573895</v>
       </c>
       <c r="T35" t="n">
-        <v>3445.090853308405</v>
+        <v>3448.25662447797</v>
       </c>
       <c r="U35" t="n">
-        <v>3280.755462207997</v>
+        <v>3283.921233377562</v>
       </c>
       <c r="V35" t="n">
-        <v>2974.363912297124</v>
+        <v>3042.218689974691</v>
       </c>
       <c r="W35" t="n">
-        <v>2710.95560096771</v>
+        <v>2778.810378645277</v>
       </c>
       <c r="X35" t="n">
-        <v>2426.85018664733</v>
+        <v>2494.704964324897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2126.071198612218</v>
+        <v>2193.925976289785</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>189.0007503730304</v>
       </c>
       <c r="K36" t="n">
-        <v>189.0007503730304</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L36" t="n">
-        <v>189.0007503730304</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M36" t="n">
-        <v>822.8497598739152</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N36" t="n">
-        <v>1489.181879967154</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O36" t="n">
-        <v>2032.329913055215</v>
+        <v>2658.684758888839</v>
       </c>
       <c r="P36" t="n">
-        <v>2451.251026707433</v>
+        <v>2658.684758888839</v>
       </c>
       <c r="Q36" t="n">
         <v>2658.684758888839</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.4484543546591</v>
+        <v>509.448454354659</v>
       </c>
       <c r="C37" t="n">
-        <v>429.8726153674522</v>
+        <v>429.8726153674521</v>
       </c>
       <c r="D37" t="n">
-        <v>369.1163198958164</v>
+        <v>369.1163198958163</v>
       </c>
       <c r="E37" t="n">
-        <v>310.5635702541233</v>
+        <v>310.5635702541232</v>
       </c>
       <c r="F37" t="n">
-        <v>253.0339666969129</v>
+        <v>253.0339666969128</v>
       </c>
       <c r="G37" t="n">
-        <v>173.7648591265413</v>
+        <v>173.7648591265411</v>
       </c>
       <c r="H37" t="n">
         <v>108.6695675732523</v>
@@ -7102,7 +7102,7 @@
         <v>596.5118976579308</v>
       </c>
       <c r="M37" t="n">
-        <v>885.890417915394</v>
+        <v>885.8904179153941</v>
       </c>
       <c r="N37" t="n">
         <v>1175.905286118454</v>
@@ -7120,7 +7120,7 @@
         <v>1691.811408073487</v>
       </c>
       <c r="S37" t="n">
-        <v>1573.337497513191</v>
+        <v>1573.33749751319</v>
       </c>
       <c r="T37" t="n">
         <v>1436.972053329584</v>
@@ -7132,13 +7132,13 @@
         <v>1071.854843500607</v>
       </c>
       <c r="W37" t="n">
-        <v>871.7980174043464</v>
+        <v>871.7980174043462</v>
       </c>
       <c r="X37" t="n">
-        <v>733.1688104470289</v>
+        <v>733.1688104470288</v>
       </c>
       <c r="Y37" t="n">
-        <v>601.7365752441989</v>
+        <v>601.7365752441987</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>105.1139672409295</v>
       </c>
       <c r="I38" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J38" t="n">
         <v>257.2860068254768</v>
@@ -7178,37 +7178,37 @@
         <v>654.4699642143163</v>
       </c>
       <c r="L38" t="n">
-        <v>1199.488412305378</v>
+        <v>1199.488412305379</v>
       </c>
       <c r="M38" t="n">
-        <v>1822.532995091974</v>
+        <v>1822.532995091975</v>
       </c>
       <c r="N38" t="n">
         <v>2441.027093055302</v>
       </c>
       <c r="O38" t="n">
-        <v>2979.865893503659</v>
+        <v>2979.86589350366</v>
       </c>
       <c r="P38" t="n">
-        <v>3402.077960302555</v>
+        <v>3402.077960302556</v>
       </c>
       <c r="Q38" t="n">
         <v>3641.919879253458</v>
       </c>
       <c r="R38" t="n">
-        <v>3638.754108083893</v>
+        <v>3641.919879253458</v>
       </c>
       <c r="S38" t="n">
-        <v>3570.75098540433</v>
+        <v>3573.916756573896</v>
       </c>
       <c r="T38" t="n">
-        <v>3445.090853308405</v>
+        <v>3448.25662447797</v>
       </c>
       <c r="U38" t="n">
-        <v>3216.066455699995</v>
+        <v>3283.921233377563</v>
       </c>
       <c r="V38" t="n">
-        <v>2974.363912297124</v>
+        <v>3042.218689974692</v>
       </c>
       <c r="W38" t="n">
         <v>2710.95560096771</v>
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4758700106269</v>
+        <v>987.4758700106271</v>
       </c>
       <c r="C39" t="n">
-        <v>813.0228407294999</v>
+        <v>813.0228407295001</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0884310682486</v>
+        <v>664.0884310682488</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8509760627932</v>
+        <v>504.8509760627933</v>
       </c>
       <c r="F39" t="n">
         <v>358.3164180896782</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8480555010634</v>
+        <v>220.8480555010635</v>
       </c>
       <c r="H39" t="n">
-        <v>119.6716530180769</v>
+        <v>119.671653018077</v>
       </c>
       <c r="I39" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J39" t="n">
         <v>189.0007503730304</v>
       </c>
       <c r="K39" t="n">
-        <v>189.0007503730304</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L39" t="n">
-        <v>189.0007503730304</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M39" t="n">
-        <v>822.8497598739152</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N39" t="n">
-        <v>1489.181879967154</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O39" t="n">
-        <v>2032.329913055215</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="P39" t="n">
-        <v>2451.251026707433</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q39" t="n">
-        <v>2658.684758888839</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="R39" t="n">
         <v>2635.898667178851</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.93101596215</v>
+        <v>2485.931015962151</v>
       </c>
       <c r="T39" t="n">
         <v>2288.833032459686</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.448454354659</v>
+        <v>509.4484543546594</v>
       </c>
       <c r="C40" t="n">
-        <v>429.872615367452</v>
+        <v>429.8726153674524</v>
       </c>
       <c r="D40" t="n">
-        <v>369.1163198958162</v>
+        <v>369.1163198958167</v>
       </c>
       <c r="E40" t="n">
-        <v>310.5635702541231</v>
+        <v>310.5635702541235</v>
       </c>
       <c r="F40" t="n">
-        <v>253.0339666969127</v>
+        <v>253.0339666969131</v>
       </c>
       <c r="G40" t="n">
-        <v>173.7648591265411</v>
+        <v>173.7648591265415</v>
       </c>
       <c r="H40" t="n">
         <v>108.6695675732523</v>
       </c>
       <c r="I40" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J40" t="n">
-        <v>141.3351129841583</v>
+        <v>141.3351129841584</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3909173073223</v>
+        <v>327.3909173073224</v>
       </c>
       <c r="L40" t="n">
-        <v>596.5118976579306</v>
+        <v>596.5118976579308</v>
       </c>
       <c r="M40" t="n">
-        <v>885.8904179153938</v>
+        <v>885.890417915394</v>
       </c>
       <c r="N40" t="n">
-        <v>1175.905286118454</v>
+        <v>1175.905286118455</v>
       </c>
       <c r="O40" t="n">
-        <v>1434.450514678689</v>
+        <v>1434.45051467869</v>
       </c>
       <c r="P40" t="n">
         <v>1644.800419843262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1733.945496149077</v>
+        <v>1733.945496149078</v>
       </c>
       <c r="R40" t="n">
         <v>1691.811408073487</v>
@@ -7360,7 +7360,7 @@
         <v>1573.337497513191</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.972053329584</v>
+        <v>1436.972053329585</v>
       </c>
       <c r="U40" t="n">
         <v>1237.178987765794</v>
@@ -7369,13 +7369,13 @@
         <v>1071.854843500607</v>
       </c>
       <c r="W40" t="n">
-        <v>871.7980174043463</v>
+        <v>871.7980174043464</v>
       </c>
       <c r="X40" t="n">
-        <v>733.1688104470288</v>
+        <v>733.168810447029</v>
       </c>
       <c r="Y40" t="n">
-        <v>601.7365752441987</v>
+        <v>601.7365752441991</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1828.831702488797</v>
+        <v>1896.686480166365</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.229529489085</v>
+        <v>1617.084307166653</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.324174823034</v>
+        <v>1348.178952500603</v>
       </c>
       <c r="E41" t="n">
-        <v>983.89626616549</v>
+        <v>1051.751043843059</v>
       </c>
       <c r="F41" t="n">
         <v>662.2707053165825</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4928701654778</v>
+        <v>334.4928701654777</v>
       </c>
       <c r="H41" t="n">
         <v>105.1139672409295</v>
       </c>
       <c r="I41" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J41" t="n">
-        <v>257.2860068254768</v>
+        <v>257.2860068254772</v>
       </c>
       <c r="K41" t="n">
-        <v>654.4699642143164</v>
+        <v>654.4699642143169</v>
       </c>
       <c r="L41" t="n">
-        <v>1199.488412305378</v>
+        <v>1199.488412305379</v>
       </c>
       <c r="M41" t="n">
-        <v>1822.532995091974</v>
+        <v>1822.532995091975</v>
       </c>
       <c r="N41" t="n">
-        <v>2441.027093055301</v>
+        <v>2441.027093055302</v>
       </c>
       <c r="O41" t="n">
-        <v>2979.865893503659</v>
+        <v>2979.86589350366</v>
       </c>
       <c r="P41" t="n">
-        <v>3402.077960302555</v>
+        <v>3402.077960302556</v>
       </c>
       <c r="Q41" t="n">
         <v>3641.919879253458</v>
@@ -7436,25 +7436,25 @@
         <v>3641.919879253458</v>
       </c>
       <c r="S41" t="n">
-        <v>3573.916756573895</v>
+        <v>3573.916756573896</v>
       </c>
       <c r="T41" t="n">
         <v>3448.25662447797</v>
       </c>
       <c r="U41" t="n">
-        <v>3283.921233377562</v>
+        <v>3283.921233377563</v>
       </c>
       <c r="V41" t="n">
-        <v>3042.218689974691</v>
+        <v>3042.218689974692</v>
       </c>
       <c r="W41" t="n">
-        <v>2710.95560096771</v>
+        <v>2778.810378645278</v>
       </c>
       <c r="X41" t="n">
-        <v>2426.85018664733</v>
+        <v>2494.704964324898</v>
       </c>
       <c r="Y41" t="n">
-        <v>2126.071198612218</v>
+        <v>2193.925976289787</v>
       </c>
     </row>
     <row r="42">
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4758700106269</v>
+        <v>987.4758700106271</v>
       </c>
       <c r="C42" t="n">
-        <v>813.0228407294999</v>
+        <v>813.0228407295001</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0884310682486</v>
+        <v>664.0884310682488</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8509760627932</v>
+        <v>504.8509760627933</v>
       </c>
       <c r="F42" t="n">
         <v>358.3164180896782</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8480555010634</v>
+        <v>220.8480555010635</v>
       </c>
       <c r="H42" t="n">
-        <v>119.6716530180769</v>
+        <v>119.671653018077</v>
       </c>
       <c r="I42" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J42" t="n">
         <v>189.0007503730304</v>
       </c>
       <c r="K42" t="n">
-        <v>189.0007503730304</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L42" t="n">
-        <v>189.0007503730304</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M42" t="n">
-        <v>822.8497598739152</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N42" t="n">
-        <v>1489.181879967154</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O42" t="n">
-        <v>2032.329913055215</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="P42" t="n">
-        <v>2451.251026707433</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q42" t="n">
-        <v>2658.684758888839</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="R42" t="n">
         <v>2635.898667178851</v>
       </c>
       <c r="S42" t="n">
-        <v>2485.93101596215</v>
+        <v>2485.931015962151</v>
       </c>
       <c r="T42" t="n">
         <v>2288.833032459686</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.4484543546589</v>
+        <v>509.4484543546594</v>
       </c>
       <c r="C43" t="n">
-        <v>429.872615367452</v>
+        <v>429.8726153674525</v>
       </c>
       <c r="D43" t="n">
-        <v>369.1163198958163</v>
+        <v>369.1163198958168</v>
       </c>
       <c r="E43" t="n">
-        <v>310.5635702541231</v>
+        <v>310.5635702541237</v>
       </c>
       <c r="F43" t="n">
-        <v>253.0339666969128</v>
+        <v>253.0339666969134</v>
       </c>
       <c r="G43" t="n">
-        <v>173.7648591265414</v>
+        <v>173.7648591265413</v>
       </c>
       <c r="H43" t="n">
-        <v>108.6695675732523</v>
+        <v>108.6695675732522</v>
       </c>
       <c r="I43" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3351129841582</v>
+        <v>141.3351129841584</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3909173073223</v>
+        <v>327.3909173073225</v>
       </c>
       <c r="L43" t="n">
-        <v>596.5118976579307</v>
+        <v>596.5118976579308</v>
       </c>
       <c r="M43" t="n">
         <v>885.8904179153941</v>
@@ -7597,7 +7597,7 @@
         <v>1573.337497513191</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.972053329584</v>
+        <v>1436.972053329585</v>
       </c>
       <c r="U43" t="n">
         <v>1237.178987765794</v>
@@ -7606,13 +7606,13 @@
         <v>1071.854843500607</v>
       </c>
       <c r="W43" t="n">
-        <v>871.7980174043462</v>
+        <v>871.7980174043466</v>
       </c>
       <c r="X43" t="n">
-        <v>733.1688104470288</v>
+        <v>733.1688104470293</v>
       </c>
       <c r="Y43" t="n">
-        <v>601.7365752441987</v>
+        <v>601.7365752441991</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.497265404994</v>
+        <v>1860.497265404996</v>
       </c>
       <c r="C44" t="n">
-        <v>1576.371440560111</v>
+        <v>1576.371440560113</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.942434048889</v>
+        <v>1302.942434048891</v>
       </c>
       <c r="E44" t="n">
-        <v>1001.990873546174</v>
+        <v>1001.990873546175</v>
       </c>
       <c r="F44" t="n">
-        <v>675.8416608520956</v>
+        <v>675.8416608520967</v>
       </c>
       <c r="G44" t="n">
-        <v>343.5401738558199</v>
+        <v>343.5401738558207</v>
       </c>
       <c r="H44" t="n">
-        <v>109.6376190861006</v>
+        <v>109.6376190861007</v>
       </c>
       <c r="I44" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J44" t="n">
         <v>257.2860068254768</v>
       </c>
       <c r="K44" t="n">
-        <v>654.4699642143161</v>
+        <v>654.4699642143163</v>
       </c>
       <c r="L44" t="n">
         <v>1199.488412305378</v>
@@ -7658,13 +7658,13 @@
         <v>1822.532995091974</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.027093055301</v>
+        <v>2441.027093055302</v>
       </c>
       <c r="O44" t="n">
-        <v>2979.865893503659</v>
+        <v>2979.86589350366</v>
       </c>
       <c r="P44" t="n">
-        <v>3402.077960302555</v>
+        <v>3402.077960302556</v>
       </c>
       <c r="Q44" t="n">
         <v>3641.919879253458</v>
@@ -7673,25 +7673,25 @@
         <v>3641.919879253458</v>
       </c>
       <c r="S44" t="n">
-        <v>3569.393104728724</v>
+        <v>3569.393104728725</v>
       </c>
       <c r="T44" t="n">
-        <v>3439.209320787627</v>
+        <v>3439.209320787628</v>
       </c>
       <c r="U44" t="n">
-        <v>3270.350277842048</v>
+        <v>3270.35027784205</v>
       </c>
       <c r="V44" t="n">
-        <v>3024.124082594006</v>
+        <v>3024.124082594008</v>
       </c>
       <c r="W44" t="n">
-        <v>2756.192119419421</v>
+        <v>2756.192119419423</v>
       </c>
       <c r="X44" t="n">
-        <v>2467.56305325387</v>
+        <v>2467.563053253872</v>
       </c>
       <c r="Y44" t="n">
-        <v>2162.260413373587</v>
+        <v>2162.260413373589</v>
       </c>
     </row>
     <row r="45">
@@ -7701,58 +7701,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4758700106269</v>
+        <v>987.4758700106271</v>
       </c>
       <c r="C45" t="n">
-        <v>813.0228407294999</v>
+        <v>813.0228407295001</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0884310682486</v>
+        <v>664.0884310682488</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8509760627932</v>
+        <v>504.8509760627933</v>
       </c>
       <c r="F45" t="n">
         <v>358.3164180896782</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8480555010634</v>
+        <v>220.8480555010635</v>
       </c>
       <c r="H45" t="n">
-        <v>119.6716530180769</v>
+        <v>119.671653018077</v>
       </c>
       <c r="I45" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J45" t="n">
         <v>189.0007503730304</v>
       </c>
       <c r="K45" t="n">
-        <v>189.0007503730304</v>
+        <v>514.1615564697988</v>
       </c>
       <c r="L45" t="n">
-        <v>189.0007503730304</v>
+        <v>1012.784783889531</v>
       </c>
       <c r="M45" t="n">
-        <v>822.8497598739152</v>
+        <v>1646.633793390416</v>
       </c>
       <c r="N45" t="n">
-        <v>1489.181879967154</v>
+        <v>2312.965913483654</v>
       </c>
       <c r="O45" t="n">
-        <v>2032.329913055215</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="P45" t="n">
-        <v>2451.251026707433</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="Q45" t="n">
-        <v>2658.684758888839</v>
+        <v>2658.68475888884</v>
       </c>
       <c r="R45" t="n">
         <v>2635.898667178851</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.93101596215</v>
+        <v>2485.931015962151</v>
       </c>
       <c r="T45" t="n">
         <v>2288.833032459686</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>541.1140172708567</v>
+        <v>478.037615783993</v>
       </c>
       <c r="C46" t="n">
-        <v>457.0145264384788</v>
+        <v>393.9381249516149</v>
       </c>
       <c r="D46" t="n">
-        <v>391.7345791216719</v>
+        <v>328.658177634808</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6581776348077</v>
+        <v>328.658177634808</v>
       </c>
       <c r="F46" t="n">
-        <v>266.6049222324262</v>
+        <v>266.6049222324265</v>
       </c>
       <c r="G46" t="n">
-        <v>182.8121628168835</v>
+        <v>182.8121628168837</v>
       </c>
       <c r="H46" t="n">
-        <v>113.1932194184233</v>
+        <v>113.1932194184235</v>
       </c>
       <c r="I46" t="n">
-        <v>72.83839758506916</v>
+        <v>72.83839758506917</v>
       </c>
       <c r="J46" t="n">
         <v>136.9014818107062</v>
       </c>
       <c r="K46" t="n">
-        <v>318.5236549604181</v>
+        <v>318.5236549604178</v>
       </c>
       <c r="L46" t="n">
-        <v>583.2110041375743</v>
+        <v>583.2110041375739</v>
       </c>
       <c r="M46" t="n">
         <v>868.1558932215853</v>
@@ -7822,7 +7822,7 @@
         <v>1407.848727637976</v>
       </c>
       <c r="P46" t="n">
-        <v>1613.765001629097</v>
+        <v>1613.765001629096</v>
       </c>
       <c r="Q46" t="n">
         <v>1698.47644676146</v>
@@ -7834,22 +7834,22 @@
         <v>1528.821144435231</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.932048406454</v>
+        <v>1387.932048406453</v>
       </c>
       <c r="U46" t="n">
-        <v>1183.615330997492</v>
+        <v>1183.615330997491</v>
       </c>
       <c r="V46" t="n">
-        <v>1013.767534887134</v>
+        <v>1013.767534887133</v>
       </c>
       <c r="W46" t="n">
-        <v>809.1870569457024</v>
+        <v>809.1870569457012</v>
       </c>
       <c r="X46" t="n">
-        <v>666.0341981432139</v>
+        <v>666.0341981432127</v>
       </c>
       <c r="Y46" t="n">
-        <v>637.9257900055676</v>
+        <v>574.8493885187039</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>293.1873990697201</v>
+        <v>311.0482556071034</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>394.5837460349999</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>8.755325453579331</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>291.5354437113035</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.8003145788023</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711645</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>363.4924615210413</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>272.2700524827286</v>
+        <v>15.89310236413029</v>
       </c>
       <c r="D11" t="n">
-        <v>335.4416614782436</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.3104742541564</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.5108783276955</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>350.4897205360297</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.590600039498</v>
+        <v>160.5906000394979</v>
       </c>
       <c r="C13" t="n">
-        <v>148.0054409561885</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>126.1796678804919</v>
       </c>
       <c r="G13" t="n">
-        <v>147.7017768535216</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.6696989966099</v>
+        <v>118.5326150737294</v>
       </c>
       <c r="I13" t="n">
-        <v>104.698218647155</v>
+        <v>104.6982186471549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9381075536884</v>
+        <v>110.9381075536883</v>
       </c>
       <c r="S13" t="n">
-        <v>186.5145318135469</v>
+        <v>186.5145318135468</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>204.2271501006238</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.8962631813887</v>
+        <v>232.8962631813886</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.8511236146321</v>
+        <v>206.4682752465978</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.3432732096555</v>
+        <v>199.3432732096554</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>330.9632461515242</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>358.2105746031029</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>96.69975899143581</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.59325420718361</v>
+        <v>132.0700364849013</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>227.4389822215379</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>304.0324630009762</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>317.0475755017795</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.1121847127785</v>
       </c>
       <c r="C16" t="n">
-        <v>143.5270256294691</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>124.8956775490537</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.7141671774105</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>121.7012525537725</v>
+        <v>103.3450846668911</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>143.223361526802</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1912836698905</v>
+        <v>129.1912836698903</v>
       </c>
       <c r="I16" t="n">
-        <v>100.2198033204356</v>
+        <v>100.2198033204354</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.4596922269689</v>
       </c>
       <c r="S16" t="n">
-        <v>182.0361164868275</v>
+        <v>182.0361164868274</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>199.7487347739044</v>
       </c>
       <c r="U16" t="n">
-        <v>222.4789229324327</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>228.4178478546692</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>201.9898599198785</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.8648578829361</v>
+        <v>194.864857882936</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>83.25849592405432</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>60.57784159969889</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.51050819719818</v>
+        <v>46.1911625215542</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>82.95483182138734</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23.81417229986585</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>106.7690041212528</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>95.84365500736385</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>10.92534911389083</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>106.7690041212534</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>64.62714784363884</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>42.1418562776143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>106.769004121253</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.95127361502077</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>66.81773050623281</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.7690041212543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>62.44563747199565</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>106.7690041212522</v>
+        <v>44.32336664925812</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>932965.0799347532</v>
+        <v>932965.0799347535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>943445.4344952417</v>
+        <v>943445.4344952418</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>299252.9501677509</v>
+        <v>299252.9501677515</v>
       </c>
       <c r="F2" t="n">
         <v>302614.5733286623</v>
       </c>
       <c r="G2" t="n">
-        <v>347853.7083502841</v>
+        <v>347853.7083502843</v>
       </c>
       <c r="H2" t="n">
         <v>347853.7083502843</v>
       </c>
       <c r="I2" t="n">
+        <v>347853.7083502837</v>
+      </c>
+      <c r="J2" t="n">
+        <v>347853.7083502844</v>
+      </c>
+      <c r="K2" t="n">
         <v>347853.7083502843</v>
       </c>
-      <c r="J2" t="n">
-        <v>347853.7083502841</v>
-      </c>
-      <c r="K2" t="n">
-        <v>347853.7083502835</v>
-      </c>
       <c r="L2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923209</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923209</v>
+        <v>348942.752192321</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923209</v>
@@ -26353,7 +26353,7 @@
         <v>348942.7521923209</v>
       </c>
       <c r="P2" t="n">
-        <v>347853.7083502841</v>
+        <v>347853.7083502844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>26613.58757266295</v>
       </c>
       <c r="E3" t="n">
-        <v>656984.5591039668</v>
+        <v>656984.5591039672</v>
       </c>
       <c r="F3" t="n">
-        <v>3582.732261375509</v>
+        <v>3582.732261375582</v>
       </c>
       <c r="G3" t="n">
-        <v>48214.82376433186</v>
+        <v>48214.82376433158</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78453.04671305769</v>
+        <v>78453.04671305779</v>
       </c>
       <c r="K3" t="n">
-        <v>3582.732261375509</v>
+        <v>3582.732261375577</v>
       </c>
       <c r="L3" t="n">
-        <v>57423.19825423311</v>
+        <v>57423.19825423294</v>
       </c>
       <c r="M3" t="n">
-        <v>161294.2825684785</v>
+        <v>161294.2825684786</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15393.10411395148</v>
+        <v>15393.10411395157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>270946.525915338</v>
       </c>
       <c r="E4" t="n">
-        <v>20218.18747742373</v>
+        <v>20218.18747742377</v>
       </c>
       <c r="F4" t="n">
-        <v>24743.82961171986</v>
+        <v>24743.82961171999</v>
       </c>
       <c r="G4" t="n">
         <v>85647.93458256911</v>
       </c>
       <c r="H4" t="n">
+        <v>85647.93458256908</v>
+      </c>
+      <c r="I4" t="n">
+        <v>85647.93458256903</v>
+      </c>
+      <c r="J4" t="n">
         <v>85647.93458256911</v>
       </c>
-      <c r="I4" t="n">
-        <v>85647.9345825691</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85647.9345825691</v>
-      </c>
       <c r="K4" t="n">
-        <v>85647.93458256905</v>
+        <v>85647.93458256908</v>
       </c>
       <c r="L4" t="n">
-        <v>87121.55640924894</v>
+        <v>87121.55640924898</v>
       </c>
       <c r="M4" t="n">
         <v>87121.55640924899</v>
       </c>
       <c r="N4" t="n">
-        <v>87121.55640924897</v>
+        <v>87121.55640924894</v>
       </c>
       <c r="O4" t="n">
-        <v>87121.55640924899</v>
+        <v>87121.55640924894</v>
       </c>
       <c r="P4" t="n">
-        <v>85647.93458256919</v>
+        <v>85647.93458256911</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
-        <v>69642.00554866277</v>
+        <v>69642.0055486628</v>
       </c>
       <c r="F5" t="n">
-        <v>70018.50144676474</v>
+        <v>70018.50144676477</v>
       </c>
       <c r="G5" t="n">
         <v>75085.21647056926</v>
       </c>
       <c r="H5" t="n">
-        <v>75085.21647056926</v>
+        <v>75085.21647056927</v>
       </c>
       <c r="I5" t="n">
         <v>75085.21647056926</v>
       </c>
       <c r="J5" t="n">
-        <v>75085.21647056926</v>
+        <v>75085.21647056927</v>
       </c>
       <c r="K5" t="n">
         <v>75085.21647056926</v>
       </c>
       <c r="L5" t="n">
-        <v>75461.71236867124</v>
+        <v>75461.71236867123</v>
       </c>
       <c r="M5" t="n">
         <v>75461.71236867123</v>
       </c>
       <c r="N5" t="n">
-        <v>75461.71236867123</v>
+        <v>75461.71236867124</v>
       </c>
       <c r="O5" t="n">
-        <v>75461.71236867123</v>
+        <v>75461.71236867124</v>
       </c>
       <c r="P5" t="n">
         <v>75085.21647056926</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59233.0082351524</v>
+        <v>-59233.00823515228</v>
       </c>
       <c r="C6" t="n">
-        <v>21536.42329639541</v>
+        <v>21536.42329639546</v>
       </c>
       <c r="D6" t="n">
-        <v>1248.231297485916</v>
+        <v>1248.231297486091</v>
       </c>
       <c r="E6" t="n">
-        <v>-447591.8019623024</v>
+        <v>-447884.0949153879</v>
       </c>
       <c r="F6" t="n">
-        <v>204269.5100088022</v>
+        <v>203996.9913096039</v>
       </c>
       <c r="G6" t="n">
-        <v>138905.7335328139</v>
+        <v>138899.327392567</v>
       </c>
       <c r="H6" t="n">
-        <v>187120.5572971459</v>
+        <v>187114.1511568987</v>
       </c>
       <c r="I6" t="n">
-        <v>187120.5572971459</v>
+        <v>187114.1511568982</v>
       </c>
       <c r="J6" t="n">
-        <v>108667.5105840881</v>
+        <v>108661.1044438409</v>
       </c>
       <c r="K6" t="n">
-        <v>183537.8250357697</v>
+        <v>183531.4188955231</v>
       </c>
       <c r="L6" t="n">
-        <v>128936.2851601675</v>
+        <v>128936.2851601678</v>
       </c>
       <c r="M6" t="n">
-        <v>25065.20084592211</v>
+        <v>25065.20084592214</v>
       </c>
       <c r="N6" t="n">
-        <v>186359.4834144007</v>
+        <v>186359.4834144008</v>
       </c>
       <c r="O6" t="n">
         <v>170966.3793004492</v>
       </c>
       <c r="P6" t="n">
-        <v>187120.5572971457</v>
+        <v>187114.1511568987</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="F2" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="G2" t="n">
         <v>83.98832517457352</v>
@@ -26704,28 +26704,28 @@
         <v>83.98832517457352</v>
       </c>
       <c r="I2" t="n">
+        <v>83.98832517457345</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83.98832517457353</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83.9883251745735</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88.466740501293</v>
+      </c>
+      <c r="M2" t="n">
+        <v>88.46674050129299</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88.46674050129297</v>
+      </c>
+      <c r="O2" t="n">
+        <v>88.466740501293</v>
+      </c>
+      <c r="P2" t="n">
         <v>83.98832517457352</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83.98832517457352</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83.98832517457346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88.46674050129297</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88.46674050129297</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88.46674050129296</v>
-      </c>
-      <c r="O2" t="n">
-        <v>88.46674050129299</v>
-      </c>
-      <c r="P2" t="n">
-        <v>83.98832517457359</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>581.065128294288</v>
+        <v>581.0651282942882</v>
       </c>
       <c r="F3" t="n">
-        <v>581.065128294288</v>
+        <v>581.0651282942882</v>
       </c>
       <c r="G3" t="n">
         <v>581.065128294288</v>
       </c>
       <c r="H3" t="n">
-        <v>581.065128294288</v>
+        <v>581.0651282942881</v>
       </c>
       <c r="I3" t="n">
         <v>581.065128294288</v>
@@ -26796,16 +26796,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
-        <v>910.4799698133646</v>
+        <v>910.4799698133647</v>
       </c>
       <c r="F4" t="n">
-        <v>910.4799698133645</v>
+        <v>910.4799698133647</v>
       </c>
       <c r="G4" t="n">
         <v>910.4799698133646</v>
       </c>
       <c r="H4" t="n">
-        <v>910.4799698133646</v>
+        <v>910.4799698133647</v>
       </c>
       <c r="I4" t="n">
         <v>910.4799698133646</v>
@@ -26817,19 +26817,19 @@
         <v>910.4799698133646</v>
       </c>
       <c r="L4" t="n">
-        <v>910.4799698133646</v>
+        <v>910.4799698133644</v>
       </c>
       <c r="M4" t="n">
         <v>910.4799698133644</v>
       </c>
       <c r="N4" t="n">
-        <v>910.4799698133644</v>
+        <v>910.4799698133646</v>
       </c>
       <c r="O4" t="n">
-        <v>910.4799698133644</v>
+        <v>910.4799698133646</v>
       </c>
       <c r="P4" t="n">
-        <v>910.4799698133644</v>
+        <v>910.4799698133646</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="F2" t="n">
-        <v>4.478415326719386</v>
+        <v>4.478415326719478</v>
       </c>
       <c r="G2" t="n">
-        <v>60.26852970541482</v>
+        <v>60.26852970541469</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243944</v>
       </c>
       <c r="K2" t="n">
-        <v>4.478415326719386</v>
+        <v>4.478415326719471</v>
       </c>
       <c r="L2" t="n">
-        <v>64.74694503213433</v>
+        <v>64.74694503213419</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>19.24138014243935</v>
+        <v>19.24138014243947</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>558.0517456074987</v>
+        <v>558.0517456074989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>22.22774507400754</v>
       </c>
       <c r="E4" t="n">
-        <v>647.237935861698</v>
+        <v>647.2379358616981</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400732</v>
       </c>
       <c r="M4" t="n">
-        <v>647.2379358616978</v>
+        <v>647.2379358616981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="K2" t="n">
-        <v>4.478415326719386</v>
+        <v>4.478415326719478</v>
       </c>
       <c r="L2" t="n">
-        <v>60.26852970541482</v>
+        <v>60.26852970541469</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243944</v>
       </c>
       <c r="P2" t="n">
-        <v>4.478415326719386</v>
+        <v>4.478415326719471</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>22.22774507400754</v>
       </c>
       <c r="M4" t="n">
-        <v>647.237935861698</v>
+        <v>647.2379358616981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,25 +27382,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>164.3376445463981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>370.456628578869</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.8178501202931</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>74.89430789050178</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,10 +27515,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>118.5910057342293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>137.1308462539486</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.9047175364003</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>68.768883674607</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>194.3197836937672</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I8" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>34.68488951813558</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>103.3342507232352</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.8061780198672</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.228403429953687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>76.01114137434787</v>
       </c>
       <c r="G10" t="n">
         <v>167.9494798159088</v>
@@ -28032,10 +28032,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="C11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="D11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="E11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="F11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="G11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="H11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="I11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.134113457868978</v>
+        <v>3.134113457868921</v>
       </c>
       <c r="S11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="T11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="U11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="V11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="W11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="X11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="D13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="E13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="F13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="G13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="I13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="J13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="K13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="L13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="M13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="N13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="O13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="P13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="R13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="S13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="T13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="U13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="V13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="W13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="X13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.24138014243932</v>
+        <v>19.24138014243936</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="C14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="D14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="E14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="F14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="G14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="H14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="I14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.134113457868978</v>
+        <v>3.134113457868921</v>
       </c>
       <c r="S14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="T14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="V14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="W14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="X14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="D16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="E16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="F16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="G16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="H16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="I16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="J16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="K16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="L16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="M16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="N16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="O16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="R16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="S16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="T16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="U16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="V16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="W16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="X16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.7197954691587</v>
+        <v>23.71979546915883</v>
       </c>
     </row>
     <row r="17">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.134113457868978</v>
+        <v>3.134113457868949</v>
       </c>
       <c r="S20" t="n">
         <v>83.98832517457352</v>
@@ -28861,7 +28861,7 @@
         <v>83.98832517457352</v>
       </c>
       <c r="W20" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457322</v>
       </c>
       <c r="X20" t="n">
         <v>83.98832517457352</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="C23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="D23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="E23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="F23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="G23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="H23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="I23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="T23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="U23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="V23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="W23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="X23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="C25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="D25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="E25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="F25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="G25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="H25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="I25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="J25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="K25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="L25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="M25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="N25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="O25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="P25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="R25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="S25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="T25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="U25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="V25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="W25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="X25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457345</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="C26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="D26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="E26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="F26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="G26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="H26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="I26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="T26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="U26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="V26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="W26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="X26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="Y26" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="C28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="D28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="E28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="F28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="G28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="H28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="I28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="J28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="K28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="L28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="M28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="N28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="O28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="P28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="R28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="S28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="T28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="U28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="V28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="W28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="X28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.98832517457352</v>
+        <v>83.98832517457353</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="C29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="D29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="E29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="F29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="G29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="H29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="I29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="T29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="U29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="V29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="W29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="X29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="C31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="D31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="E31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="F31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="G31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="H31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="I31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="J31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="K31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="L31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="M31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="N31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="O31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="P31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="R31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="S31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="T31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="U31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="V31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="W31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="X31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.98832517457346</v>
+        <v>83.9883251745735</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="C32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="D32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="E32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="F32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="G32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="H32" t="n">
-        <v>88.46674050129297</v>
+        <v>21.29051060050097</v>
       </c>
       <c r="I32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="T32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="U32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="V32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="W32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="X32" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.29051060050034</v>
+        <v>88.466740501293</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="C34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="D34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="E34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="F34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="G34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="H34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="I34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="J34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="K34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="L34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="M34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="N34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="O34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="P34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="R34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="S34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="T34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="U34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="V34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="W34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="X34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.46674050129297</v>
+        <v>88.466740501293</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="C35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="D35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="E35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="F35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="G35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="H35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="I35" t="n">
-        <v>88.46674050129297</v>
+        <v>21.29051060050145</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.134113457868978</v>
       </c>
       <c r="S35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="T35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="U35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="V35" t="n">
-        <v>24.42462405837068</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="W35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="X35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="C37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="D37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="E37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="F37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="G37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="H37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="I37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="J37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="K37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="L37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="M37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="N37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="O37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="P37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="R37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="S37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="T37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="U37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="V37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="W37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="X37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.46674050129297</v>
+        <v>88.46674050129299</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="C38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="D38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="E38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="F38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="G38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="H38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="I38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.134113457868978</v>
       </c>
       <c r="S38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="T38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="U38" t="n">
-        <v>24.42462405837048</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="V38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="W38" t="n">
-        <v>88.46674050129296</v>
+        <v>21.29051060050062</v>
       </c>
       <c r="X38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="C40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="D40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="E40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="F40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="G40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="H40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="I40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="J40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="K40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="L40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="M40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="N40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="O40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="P40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="R40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="S40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="T40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="U40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="V40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="W40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="X40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.46674050129296</v>
+        <v>88.46674050129297</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="C41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="D41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="E41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="F41" t="n">
-        <v>88.46674050129299</v>
+        <v>21.29051060050011</v>
       </c>
       <c r="G41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="H41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="I41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="T41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="U41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="V41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="W41" t="n">
-        <v>21.29051060050153</v>
+        <v>88.466740501293</v>
       </c>
       <c r="X41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="C43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="D43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="E43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="F43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="G43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="H43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="I43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="J43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="K43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="L43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="M43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="N43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="O43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="P43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="R43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="S43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="T43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="U43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="V43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="W43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="X43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.46674050129299</v>
+        <v>88.466740501293</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="C44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="D44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="E44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="F44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="G44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="H44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="I44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>3.134113457868978</v>
       </c>
       <c r="S44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="T44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="U44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="V44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="W44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="X44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="C46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="D46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="E46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="F46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="G46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="H46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="I46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="J46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="K46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="L46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="M46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="N46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="O46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="P46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="R46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="S46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="T46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="U46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="V46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="W46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="X46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.98832517457359</v>
+        <v>83.98832517457352</v>
       </c>
     </row>
   </sheetData>
@@ -31601,13 +31601,13 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31619,10 +31619,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210533</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>3.073372125605564</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.335940214248392</v>
+        <v>2.335940214248393</v>
       </c>
       <c r="H11" t="n">
-        <v>23.92294771917135</v>
+        <v>23.92294771917136</v>
       </c>
       <c r="I11" t="n">
-        <v>90.05633510981123</v>
+        <v>90.05633510981126</v>
       </c>
       <c r="J11" t="n">
         <v>198.2600057590647</v>
       </c>
       <c r="K11" t="n">
-        <v>297.1403550281992</v>
+        <v>297.1403550281993</v>
       </c>
       <c r="L11" t="n">
-        <v>368.6288853600035</v>
+        <v>368.6288853600036</v>
       </c>
       <c r="M11" t="n">
-        <v>410.1706621451433</v>
+        <v>410.1706621451435</v>
       </c>
       <c r="N11" t="n">
-        <v>416.8076522788766</v>
+        <v>416.8076522788767</v>
       </c>
       <c r="O11" t="n">
-        <v>393.5796467734441</v>
+        <v>393.5796467734443</v>
       </c>
       <c r="P11" t="n">
-        <v>335.9111227341868</v>
+        <v>335.911122734187</v>
       </c>
       <c r="Q11" t="n">
-        <v>252.2552638114162</v>
+        <v>252.2552638114163</v>
       </c>
       <c r="R11" t="n">
-        <v>146.7350044832807</v>
+        <v>146.7350044832808</v>
       </c>
       <c r="S11" t="n">
-        <v>53.23023763218529</v>
+        <v>53.23023763218531</v>
       </c>
       <c r="T11" t="n">
-        <v>10.22557828787234</v>
+        <v>10.22557828787235</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1868752171398713</v>
+        <v>0.1868752171398714</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.249838200482053</v>
+        <v>1.249838200482054</v>
       </c>
       <c r="H12" t="n">
-        <v>12.07080577833983</v>
+        <v>12.07080577833984</v>
       </c>
       <c r="I12" t="n">
-        <v>43.03170997273737</v>
+        <v>43.03170997273739</v>
       </c>
       <c r="J12" t="n">
         <v>118.0823012130874</v>
       </c>
       <c r="K12" t="n">
-        <v>201.8214606453849</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>178.2398247221337</v>
+        <v>271.3738601529126</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>325.0620853087075</v>
       </c>
       <c r="O12" t="n">
-        <v>297.3683020243419</v>
+        <v>297.368302024342</v>
       </c>
       <c r="P12" t="n">
-        <v>238.6642788271388</v>
+        <v>238.6642788271389</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.5407499422355</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.5996033597542</v>
+        <v>77.59960335975423</v>
       </c>
       <c r="S12" t="n">
-        <v>23.21519639930479</v>
+        <v>23.2151963993048</v>
       </c>
       <c r="T12" t="n">
-        <v>5.037725027381608</v>
+        <v>5.037725027381611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08222619740013513</v>
+        <v>0.08222619740013516</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,28 +31908,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.047822362497896</v>
+        <v>1.047822362497897</v>
       </c>
       <c r="H13" t="n">
-        <v>9.316093368390394</v>
+        <v>9.316093368390398</v>
       </c>
       <c r="I13" t="n">
-        <v>31.51087613766402</v>
+        <v>31.51087613766403</v>
       </c>
       <c r="J13" t="n">
-        <v>74.08104102860126</v>
+        <v>74.08104102860129</v>
       </c>
       <c r="K13" t="n">
-        <v>121.7379072065737</v>
+        <v>121.7379072065738</v>
       </c>
       <c r="L13" t="n">
-        <v>155.7826083299145</v>
+        <v>155.7826083299146</v>
       </c>
       <c r="M13" t="n">
         <v>164.2509181504657</v>
       </c>
       <c r="N13" t="n">
-        <v>160.3453984357009</v>
+        <v>160.345398435701</v>
       </c>
       <c r="O13" t="n">
         <v>148.1049281101573</v>
@@ -31938,19 +31938,19 @@
         <v>126.7293519152001</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.74083437243749</v>
+        <v>87.74083437243752</v>
       </c>
       <c r="R13" t="n">
-        <v>47.11390368104176</v>
+        <v>47.11390368104178</v>
       </c>
       <c r="S13" t="n">
-        <v>18.26068608098606</v>
+        <v>18.26068608098607</v>
       </c>
       <c r="T13" t="n">
-        <v>4.477059185218283</v>
+        <v>4.477059185218285</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05715394704533986</v>
+        <v>0.05715394704533989</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.335940214248392</v>
+        <v>2.335940214248393</v>
       </c>
       <c r="H14" t="n">
-        <v>23.92294771917135</v>
+        <v>23.92294771917136</v>
       </c>
       <c r="I14" t="n">
-        <v>90.05633510981123</v>
+        <v>90.05633510981126</v>
       </c>
       <c r="J14" t="n">
         <v>198.2600057590647</v>
       </c>
       <c r="K14" t="n">
-        <v>297.1403550281992</v>
+        <v>297.1403550281993</v>
       </c>
       <c r="L14" t="n">
-        <v>368.6288853600035</v>
+        <v>368.6288853600036</v>
       </c>
       <c r="M14" t="n">
-        <v>410.1706621451433</v>
+        <v>410.1706621451435</v>
       </c>
       <c r="N14" t="n">
-        <v>416.8076522788766</v>
+        <v>416.8076522788767</v>
       </c>
       <c r="O14" t="n">
-        <v>393.5796467734441</v>
+        <v>393.5796467734443</v>
       </c>
       <c r="P14" t="n">
-        <v>335.9111227341868</v>
+        <v>335.911122734187</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.2552638114162</v>
+        <v>252.2552638114163</v>
       </c>
       <c r="R14" t="n">
-        <v>146.7350044832807</v>
+        <v>146.7350044832808</v>
       </c>
       <c r="S14" t="n">
-        <v>53.23023763218529</v>
+        <v>53.23023763218531</v>
       </c>
       <c r="T14" t="n">
-        <v>10.22557828787234</v>
+        <v>10.22557828787235</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1868752171398713</v>
+        <v>0.1868752171398714</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.249838200482053</v>
+        <v>1.249838200482054</v>
       </c>
       <c r="H15" t="n">
-        <v>12.07080577833983</v>
+        <v>12.07080577833984</v>
       </c>
       <c r="I15" t="n">
-        <v>43.03170997273737</v>
+        <v>43.03170997273739</v>
       </c>
       <c r="J15" t="n">
         <v>118.0823012130874</v>
       </c>
       <c r="K15" t="n">
-        <v>201.8214606453849</v>
+        <v>201.821460645385</v>
       </c>
       <c r="L15" t="n">
-        <v>60.90411483530329</v>
+        <v>271.3738601529126</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>316.680494920387</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>325.0620853087075</v>
       </c>
       <c r="O15" t="n">
-        <v>297.3683020243419</v>
+        <v>297.368302024342</v>
       </c>
       <c r="P15" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.5407499422355</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.5996033597542</v>
+        <v>77.59960335975423</v>
       </c>
       <c r="S15" t="n">
-        <v>23.21519639930479</v>
+        <v>23.2151963993048</v>
       </c>
       <c r="T15" t="n">
-        <v>5.037725027381608</v>
+        <v>5.037725027381611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08222619740013513</v>
+        <v>0.08222619740013516</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,28 +32145,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.047822362497896</v>
+        <v>1.047822362497897</v>
       </c>
       <c r="H16" t="n">
-        <v>9.316093368390394</v>
+        <v>9.316093368390398</v>
       </c>
       <c r="I16" t="n">
-        <v>31.51087613766402</v>
+        <v>31.51087613766403</v>
       </c>
       <c r="J16" t="n">
-        <v>74.08104102860126</v>
+        <v>74.08104102860129</v>
       </c>
       <c r="K16" t="n">
-        <v>121.7379072065737</v>
+        <v>121.7379072065738</v>
       </c>
       <c r="L16" t="n">
-        <v>155.7826083299145</v>
+        <v>155.7826083299146</v>
       </c>
       <c r="M16" t="n">
         <v>164.2509181504657</v>
       </c>
       <c r="N16" t="n">
-        <v>160.3453984357009</v>
+        <v>160.345398435701</v>
       </c>
       <c r="O16" t="n">
         <v>148.1049281101573</v>
@@ -32175,19 +32175,19 @@
         <v>126.7293519152001</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.74083437243749</v>
+        <v>87.74083437243752</v>
       </c>
       <c r="R16" t="n">
-        <v>47.11390368104176</v>
+        <v>47.11390368104178</v>
       </c>
       <c r="S16" t="n">
-        <v>18.26068608098606</v>
+        <v>18.26068608098607</v>
       </c>
       <c r="T16" t="n">
-        <v>4.477059185218283</v>
+        <v>4.477059185218285</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05715394704533986</v>
+        <v>0.05715394704533989</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>43.03170997273737</v>
       </c>
       <c r="J18" t="n">
-        <v>118.0823012130874</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L18" t="n">
-        <v>271.3738601529125</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>316.6804949203869</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>325.0620853087074</v>
       </c>
       <c r="O18" t="n">
-        <v>115.2779795422255</v>
+        <v>297.3683020243419</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>91.8420182405647</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.5407499422355</v>
       </c>
       <c r="R18" t="n">
         <v>77.5996033597542</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.335940214248392</v>
+        <v>2.335940214248393</v>
       </c>
       <c r="H20" t="n">
-        <v>23.92294771917135</v>
+        <v>23.92294771917136</v>
       </c>
       <c r="I20" t="n">
-        <v>90.05633510981123</v>
+        <v>90.05633510981124</v>
       </c>
       <c r="J20" t="n">
         <v>198.2600057590647</v>
@@ -32476,34 +32476,34 @@
         <v>297.1403550281992</v>
       </c>
       <c r="L20" t="n">
-        <v>368.6288853600035</v>
+        <v>368.6288853600036</v>
       </c>
       <c r="M20" t="n">
-        <v>410.1706621451433</v>
+        <v>410.1706621451434</v>
       </c>
       <c r="N20" t="n">
-        <v>416.8076522788766</v>
+        <v>416.8076522788767</v>
       </c>
       <c r="O20" t="n">
-        <v>393.5796467734441</v>
+        <v>393.5796467734442</v>
       </c>
       <c r="P20" t="n">
-        <v>335.9111227341868</v>
+        <v>335.9111227341869</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.2552638114162</v>
+        <v>252.2552638114163</v>
       </c>
       <c r="R20" t="n">
         <v>146.7350044832807</v>
       </c>
       <c r="S20" t="n">
-        <v>53.23023763218529</v>
+        <v>53.2302376321853</v>
       </c>
       <c r="T20" t="n">
         <v>10.22557828787234</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1868752171398713</v>
+        <v>0.1868752171398714</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.249838200482053</v>
+        <v>1.249838200482054</v>
       </c>
       <c r="H21" t="n">
-        <v>12.07080577833983</v>
+        <v>12.07080577833984</v>
       </c>
       <c r="I21" t="n">
-        <v>43.03170997273737</v>
+        <v>43.03170997273738</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.0823012130874</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>127.8797755473714</v>
       </c>
       <c r="L21" t="n">
-        <v>271.3738601529125</v>
+        <v>271.3738601529126</v>
       </c>
       <c r="M21" t="n">
-        <v>181.8303686752724</v>
+        <v>316.680494920387</v>
       </c>
       <c r="N21" t="n">
-        <v>325.0620853087074</v>
+        <v>325.0620853087075</v>
       </c>
       <c r="O21" t="n">
-        <v>297.3683020243419</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>238.6642788271388</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.5996033597542</v>
+        <v>77.59960335975421</v>
       </c>
       <c r="S21" t="n">
-        <v>23.21519639930479</v>
+        <v>23.2151963993048</v>
       </c>
       <c r="T21" t="n">
-        <v>5.037725027381608</v>
+        <v>5.037725027381609</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08222619740013513</v>
+        <v>0.08222619740013515</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>1.047822362497896</v>
       </c>
       <c r="H22" t="n">
-        <v>9.316093368390394</v>
+        <v>9.316093368390396</v>
       </c>
       <c r="I22" t="n">
         <v>31.51087613766402</v>
       </c>
       <c r="J22" t="n">
-        <v>74.08104102860126</v>
+        <v>74.08104102860128</v>
       </c>
       <c r="K22" t="n">
-        <v>121.7379072065737</v>
+        <v>121.7379072065738</v>
       </c>
       <c r="L22" t="n">
-        <v>155.7826083299145</v>
+        <v>155.7826083299146</v>
       </c>
       <c r="M22" t="n">
         <v>164.2509181504657</v>
       </c>
       <c r="N22" t="n">
-        <v>160.3453984357009</v>
+        <v>160.345398435701</v>
       </c>
       <c r="O22" t="n">
         <v>148.1049281101573</v>
@@ -32649,19 +32649,19 @@
         <v>126.7293519152001</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.74083437243749</v>
+        <v>87.7408343724375</v>
       </c>
       <c r="R22" t="n">
-        <v>47.11390368104176</v>
+        <v>47.11390368104177</v>
       </c>
       <c r="S22" t="n">
         <v>18.26068608098606</v>
       </c>
       <c r="T22" t="n">
-        <v>4.477059185218283</v>
+        <v>4.477059185218284</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05715394704533986</v>
+        <v>0.05715394704533987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>43.03170997273737</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.0823012130874</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L24" t="n">
         <v>271.3738601529125</v>
@@ -32801,10 +32801,10 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O24" t="n">
-        <v>50.47769499030852</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6642788271388</v>
+        <v>164.7225937291261</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>43.03170997273737</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.0823012130874</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L27" t="n">
         <v>271.3738601529125</v>
@@ -33038,10 +33038,10 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O27" t="n">
-        <v>50.47769499030852</v>
+        <v>97.9448801224479</v>
       </c>
       <c r="P27" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L30" t="n">
         <v>271.3738601529125</v>
@@ -33275,7 +33275,7 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O30" t="n">
-        <v>289.141973817447</v>
+        <v>215.2805900092773</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L33" t="n">
-        <v>263.1475319460177</v>
+        <v>271.3738601529125</v>
       </c>
       <c r="M33" t="n">
         <v>316.6804949203869</v>
@@ -33512,7 +33512,7 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O33" t="n">
-        <v>297.3683020243419</v>
+        <v>215.2805900092768</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33737,10 +33737,10 @@
         <v>118.0823012130874</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>271.3738601529125</v>
       </c>
       <c r="M36" t="n">
         <v>316.6804949203869</v>
@@ -33749,13 +33749,13 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O36" t="n">
-        <v>297.3683020243419</v>
+        <v>97.94488012244744</v>
       </c>
       <c r="P36" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.4335087556339</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>77.5996033597542</v>
@@ -33898,7 +33898,7 @@
         <v>297.1403550281992</v>
       </c>
       <c r="L38" t="n">
-        <v>368.6288853600035</v>
+        <v>368.6288853600041</v>
       </c>
       <c r="M38" t="n">
         <v>410.1706621451433</v>
@@ -33974,10 +33974,10 @@
         <v>118.0823012130874</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>271.3738601529125</v>
       </c>
       <c r="M39" t="n">
         <v>316.6804949203869</v>
@@ -33986,13 +33986,13 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O39" t="n">
-        <v>297.3683020243419</v>
+        <v>97.9448801224479</v>
       </c>
       <c r="P39" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.4335087556339</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>77.5996033597542</v>
@@ -34211,10 +34211,10 @@
         <v>118.0823012130874</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>271.3738601529125</v>
       </c>
       <c r="M42" t="n">
         <v>316.6804949203869</v>
@@ -34223,13 +34223,13 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O42" t="n">
-        <v>297.3683020243419</v>
+        <v>97.9448801224479</v>
       </c>
       <c r="P42" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.4335087556339</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>77.5996033597542</v>
@@ -34378,7 +34378,7 @@
         <v>410.1706621451433</v>
       </c>
       <c r="N44" t="n">
-        <v>416.8076522788766</v>
+        <v>416.8076522788772</v>
       </c>
       <c r="O44" t="n">
         <v>393.5796467734441</v>
@@ -34448,10 +34448,10 @@
         <v>118.0823012130874</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>201.8214606453849</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>271.3738601529125</v>
       </c>
       <c r="M45" t="n">
         <v>316.6804949203869</v>
@@ -34460,13 +34460,13 @@
         <v>325.0620853087074</v>
       </c>
       <c r="O45" t="n">
-        <v>297.3683020243419</v>
+        <v>97.9448801224479</v>
       </c>
       <c r="P45" t="n">
-        <v>238.6642788271388</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.4335087556339</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>77.5996033597542</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>151.0533651477018</v>
+        <v>168.9142216850852</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3107164044521</v>
+        <v>186.3107164044522</v>
       </c>
       <c r="K11" t="n">
-        <v>401.1959165543834</v>
+        <v>401.1959165543835</v>
       </c>
       <c r="L11" t="n">
-        <v>550.5236849404666</v>
+        <v>550.5236849404669</v>
       </c>
       <c r="M11" t="n">
-        <v>629.3379624107031</v>
+        <v>629.3379624107032</v>
       </c>
       <c r="N11" t="n">
-        <v>624.7415130942697</v>
+        <v>624.74151309427</v>
       </c>
       <c r="O11" t="n">
-        <v>544.2816166145027</v>
+        <v>544.2816166145029</v>
       </c>
       <c r="P11" t="n">
-        <v>426.4768351503999</v>
+        <v>426.4768351504001</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.2645645968714</v>
+        <v>242.2645645968715</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.3357098868295</v>
       </c>
       <c r="K12" t="n">
-        <v>328.4452586836045</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>410.5257902457187</v>
+        <v>503.6598256764976</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>149.4014097892852</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>673.0627475689278</v>
       </c>
       <c r="O12" t="n">
-        <v>548.634376856627</v>
+        <v>548.6343768566271</v>
       </c>
       <c r="P12" t="n">
-        <v>423.1526400527457</v>
+        <v>423.1526400527458</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.636263592063</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>118.7097955231302</v>
+        <v>118.7097955231303</v>
       </c>
       <c r="L13" t="n">
-        <v>202.61401373267</v>
+        <v>202.6140137326701</v>
       </c>
       <c r="M13" t="n">
-        <v>223.0761752547456</v>
+        <v>223.0761752547457</v>
       </c>
       <c r="N13" t="n">
-        <v>223.7189509573688</v>
+        <v>223.7189509573689</v>
       </c>
       <c r="O13" t="n">
         <v>191.9314361666363</v>
       </c>
       <c r="P13" t="n">
-        <v>143.2492913225329</v>
+        <v>143.249291322533</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.82017126318243</v>
+        <v>20.82017126318249</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3107164044521</v>
+        <v>186.3107164044522</v>
       </c>
       <c r="K14" t="n">
-        <v>401.1959165543834</v>
+        <v>401.1959165543835</v>
       </c>
       <c r="L14" t="n">
-        <v>550.5236849404666</v>
+        <v>550.5236849404669</v>
       </c>
       <c r="M14" t="n">
-        <v>629.3379624107031</v>
+        <v>629.3379624107032</v>
       </c>
       <c r="N14" t="n">
-        <v>624.7415130942697</v>
+        <v>624.74151309427</v>
       </c>
       <c r="O14" t="n">
-        <v>544.2816166145027</v>
+        <v>544.2816166145029</v>
       </c>
       <c r="P14" t="n">
-        <v>426.4768351503999</v>
+        <v>426.4768351504001</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.2645645968714</v>
+        <v>242.2645645968715</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>117.3357098868295</v>
       </c>
       <c r="K15" t="n">
-        <v>328.4452586836045</v>
+        <v>63.98002167102601</v>
       </c>
       <c r="L15" t="n">
-        <v>293.1900803588883</v>
+        <v>503.6598256764976</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>640.2515247483686</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>483.5206878041765</v>
       </c>
       <c r="O15" t="n">
-        <v>548.634376856627</v>
+        <v>548.6343768566271</v>
       </c>
       <c r="P15" t="n">
-        <v>423.1526400527457</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.636263592063</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.441656381087185</v>
+        <v>4.441656381087341</v>
       </c>
       <c r="K16" t="n">
-        <v>123.1882108498496</v>
+        <v>123.1882108498498</v>
       </c>
       <c r="L16" t="n">
-        <v>207.0924290593894</v>
+        <v>207.0924290593896</v>
       </c>
       <c r="M16" t="n">
-        <v>227.554590581465</v>
+        <v>227.5545905814652</v>
       </c>
       <c r="N16" t="n">
-        <v>228.1973662840882</v>
+        <v>228.1973662840884</v>
       </c>
       <c r="O16" t="n">
-        <v>196.4098514933556</v>
+        <v>196.4098514933558</v>
       </c>
       <c r="P16" t="n">
-        <v>147.7277066492522</v>
+        <v>147.7277066492524</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.2985865899018</v>
+        <v>25.29858658990196</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>117.3357098868295</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L18" t="n">
-        <v>503.6598256764975</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>640.2515247483685</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>673.0627475689276</v>
       </c>
       <c r="O18" t="n">
-        <v>366.5440543745106</v>
+        <v>548.634376856627</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>276.3303794661716</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>229.636263592063</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>186.3107164044521</v>
+        <v>186.3107164044522</v>
       </c>
       <c r="K20" t="n">
         <v>401.1959165543834</v>
       </c>
       <c r="L20" t="n">
-        <v>550.5236849404666</v>
+        <v>550.5236849404668</v>
       </c>
       <c r="M20" t="n">
         <v>629.3379624107031</v>
       </c>
       <c r="N20" t="n">
-        <v>624.7415130942697</v>
+        <v>624.74151309427</v>
       </c>
       <c r="O20" t="n">
-        <v>544.2816166145027</v>
+        <v>544.2816166145028</v>
       </c>
       <c r="P20" t="n">
-        <v>426.4768351503999</v>
+        <v>426.4768351504</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.2645645968714</v>
+        <v>242.2645645968715</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>117.3357098868295</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>254.503573585591</v>
       </c>
       <c r="L21" t="n">
-        <v>503.6598256764975</v>
+        <v>503.6598256764976</v>
       </c>
       <c r="M21" t="n">
-        <v>505.401398503254</v>
+        <v>640.2515247483686</v>
       </c>
       <c r="N21" t="n">
-        <v>673.0627475689276</v>
+        <v>673.0627475689278</v>
       </c>
       <c r="O21" t="n">
-        <v>548.634376856627</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>423.1526400527458</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.71018608650201</v>
+        <v>64.71018608650202</v>
       </c>
       <c r="K22" t="n">
         <v>183.4567405552644</v>
@@ -36288,7 +36288,7 @@
         <v>287.8231202868798</v>
       </c>
       <c r="N22" t="n">
-        <v>288.465895989503</v>
+        <v>288.4658959895031</v>
       </c>
       <c r="O22" t="n">
         <v>256.6783811987705</v>
@@ -36297,7 +36297,7 @@
         <v>207.9962363546671</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.56711629531662</v>
+        <v>85.56711629531664</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>117.3357098868295</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L24" t="n">
         <v>503.6598256764975</v>
@@ -36449,13 +36449,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O24" t="n">
-        <v>301.7437698225936</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>423.1526400527457</v>
+        <v>349.210954954733</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.71018608650201</v>
+        <v>64.71018608650193</v>
       </c>
       <c r="K25" t="n">
-        <v>183.4567405552644</v>
+        <v>183.4567405552643</v>
       </c>
       <c r="L25" t="n">
-        <v>267.3609587648042</v>
+        <v>267.3609587648041</v>
       </c>
       <c r="M25" t="n">
-        <v>287.8231202868798</v>
+        <v>287.8231202868797</v>
       </c>
       <c r="N25" t="n">
-        <v>288.465895989503</v>
+        <v>288.4658959895029</v>
       </c>
       <c r="O25" t="n">
-        <v>256.6783811987705</v>
+        <v>256.6783811987704</v>
       </c>
       <c r="P25" t="n">
-        <v>207.9962363546671</v>
+        <v>207.996236354667</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.56711629531662</v>
+        <v>85.56711629531655</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>117.3357098868295</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L27" t="n">
         <v>503.6598256764975</v>
@@ -36686,13 +36686,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O27" t="n">
-        <v>301.7437698225936</v>
+        <v>349.210954954733</v>
       </c>
       <c r="P27" t="n">
-        <v>423.1526400527457</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>64.71018608650201</v>
+        <v>64.71018608650202</v>
       </c>
       <c r="K28" t="n">
         <v>183.4567405552644</v>
@@ -36771,7 +36771,7 @@
         <v>207.9962363546671</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.56711629531662</v>
+        <v>85.56711629531664</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L30" t="n">
         <v>503.6598256764975</v>
@@ -36923,13 +36923,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O30" t="n">
-        <v>540.4080486497321</v>
+        <v>466.5466648415623</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>64.71018608650195</v>
+        <v>64.71018608650199</v>
       </c>
       <c r="K31" t="n">
-        <v>183.4567405552643</v>
+        <v>183.4567405552644</v>
       </c>
       <c r="L31" t="n">
-        <v>267.3609587648041</v>
+        <v>267.3609587648042</v>
       </c>
       <c r="M31" t="n">
-        <v>287.8231202868797</v>
+        <v>287.8231202868798</v>
       </c>
       <c r="N31" t="n">
-        <v>288.4658959895029</v>
+        <v>288.465895989503</v>
       </c>
       <c r="O31" t="n">
-        <v>256.6783811987704</v>
+        <v>256.6783811987705</v>
       </c>
       <c r="P31" t="n">
         <v>207.996236354667</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.56711629531657</v>
+        <v>85.56711629531661</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L33" t="n">
-        <v>495.4334974696027</v>
+        <v>503.6598256764975</v>
       </c>
       <c r="M33" t="n">
         <v>640.2515247483685</v>
@@ -37160,13 +37160,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O33" t="n">
-        <v>548.634376856627</v>
+        <v>466.5466648415619</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.18860141322146</v>
+        <v>69.18860141322149</v>
       </c>
       <c r="K34" t="n">
         <v>187.9351558819839</v>
       </c>
       <c r="L34" t="n">
-        <v>271.8393740915236</v>
+        <v>271.8393740915237</v>
       </c>
       <c r="M34" t="n">
-        <v>292.3015356135992</v>
+        <v>292.3015356135993</v>
       </c>
       <c r="N34" t="n">
         <v>292.9443113162225</v>
@@ -37245,7 +37245,7 @@
         <v>212.4746516813865</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.04553162203608</v>
+        <v>90.04553162203611</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>117.3357098868295</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>503.6598256764975</v>
       </c>
       <c r="M36" t="n">
         <v>640.2515247483685</v>
@@ -37397,13 +37397,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O36" t="n">
-        <v>548.634376856627</v>
+        <v>349.2109549547325</v>
       </c>
       <c r="P36" t="n">
-        <v>423.1526400527457</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>209.5290224054615</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.18860141322146</v>
+        <v>69.18860141322148</v>
       </c>
       <c r="K37" t="n">
         <v>187.9351558819839</v>
       </c>
       <c r="L37" t="n">
-        <v>271.8393740915236</v>
+        <v>271.8393740915237</v>
       </c>
       <c r="M37" t="n">
         <v>292.3015356135992</v>
@@ -37482,7 +37482,7 @@
         <v>212.4746516813865</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.04553162203608</v>
+        <v>90.04553162203609</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>401.1959165543834</v>
       </c>
       <c r="L38" t="n">
-        <v>550.5236849404666</v>
+        <v>550.5236849404673</v>
       </c>
       <c r="M38" t="n">
         <v>629.3379624107031</v>
@@ -37622,10 +37622,10 @@
         <v>117.3357098868295</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>503.6598256764975</v>
       </c>
       <c r="M39" t="n">
         <v>640.2515247483685</v>
@@ -37634,13 +37634,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O39" t="n">
-        <v>548.634376856627</v>
+        <v>349.210954954733</v>
       </c>
       <c r="P39" t="n">
-        <v>423.1526400527457</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>209.5290224054615</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.18860141322145</v>
+        <v>69.18860141322146</v>
       </c>
       <c r="K40" t="n">
         <v>187.9351558819839</v>
@@ -37719,7 +37719,7 @@
         <v>212.4746516813865</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.04553162203607</v>
+        <v>90.04553162203608</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>117.3357098868295</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>503.6598256764975</v>
       </c>
       <c r="M42" t="n">
         <v>640.2515247483685</v>
@@ -37871,13 +37871,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O42" t="n">
-        <v>548.634376856627</v>
+        <v>349.210954954733</v>
       </c>
       <c r="P42" t="n">
-        <v>423.1526400527457</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>209.5290224054615</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.18860141322148</v>
+        <v>69.18860141322149</v>
       </c>
       <c r="K43" t="n">
         <v>187.9351558819839</v>
@@ -37944,7 +37944,7 @@
         <v>271.8393740915237</v>
       </c>
       <c r="M43" t="n">
-        <v>292.3015356135992</v>
+        <v>292.3015356135993</v>
       </c>
       <c r="N43" t="n">
         <v>292.9443113162225</v>
@@ -37956,7 +37956,7 @@
         <v>212.4746516813865</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.04553162203609</v>
+        <v>90.04553162203611</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>186.3107164044521</v>
       </c>
       <c r="K44" t="n">
-        <v>401.1959165543831</v>
+        <v>401.1959165543834</v>
       </c>
       <c r="L44" t="n">
         <v>550.5236849404666</v>
@@ -38026,7 +38026,7 @@
         <v>629.3379624107031</v>
       </c>
       <c r="N44" t="n">
-        <v>624.7415130942697</v>
+        <v>624.7415130942704</v>
       </c>
       <c r="O44" t="n">
         <v>544.2816166145027</v>
@@ -38096,10 +38096,10 @@
         <v>117.3357098868295</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>328.4452586836045</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>503.6598256764975</v>
       </c>
       <c r="M45" t="n">
         <v>640.2515247483685</v>
@@ -38108,13 +38108,13 @@
         <v>673.0627475689276</v>
       </c>
       <c r="O45" t="n">
-        <v>548.634376856627</v>
+        <v>349.210954954733</v>
       </c>
       <c r="P45" t="n">
-        <v>423.1526400527457</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>209.5290224054615</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>64.71018608650208</v>
+        <v>64.71018608650201</v>
       </c>
       <c r="K46" t="n">
-        <v>183.4567405552645</v>
+        <v>183.4567405552644</v>
       </c>
       <c r="L46" t="n">
-        <v>267.3609587648043</v>
+        <v>267.3609587648042</v>
       </c>
       <c r="M46" t="n">
-        <v>287.8231202868799</v>
+        <v>287.8231202868798</v>
       </c>
       <c r="N46" t="n">
-        <v>288.4658959895031</v>
+        <v>288.465895989503</v>
       </c>
       <c r="O46" t="n">
         <v>256.6783811987705</v>
@@ -38193,7 +38193,7 @@
         <v>207.9962363546671</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.56711629531669</v>
+        <v>85.56711629531662</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
